--- a/results/Geo-Based Results Overview.xlsx
+++ b/results/Geo-Based Results Overview.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="ux ut and uxt" sheetId="1" r:id="rId1"/>
-    <sheet name="Gradient combinations" sheetId="3" r:id="rId2"/>
-    <sheet name="All Results" sheetId="2" r:id="rId3"/>
+    <sheet name="All Results" sheetId="2" r:id="rId1"/>
+    <sheet name="ux ut and uxt" sheetId="1" r:id="rId2"/>
+    <sheet name="Gradient combinations" sheetId="6" r:id="rId3"/>
+    <sheet name="Residual RAD, RARD" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="56">
   <si>
     <t>Parameters</t>
   </si>
@@ -169,16 +170,37 @@
   <si>
     <t>(ux+ut)/2</t>
   </si>
+  <si>
+    <t>u_x + u_t</t>
+  </si>
+  <si>
+    <t>(u_x + u_t)/2</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>RARD</t>
+  </si>
+  <si>
+    <t>file labelled uxut1</t>
+  </si>
+  <si>
+    <t>file labelled uxut2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="168" formatCode="0.000E+00"/>
-    <numFmt numFmtId="169" formatCode="0.0000%"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -556,37 +578,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,43 +599,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -643,19 +632,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2180,10 +2204,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C2" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="33">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="33">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="37">
+        <v>0.25371749999999998</v>
+      </c>
+      <c r="D5" s="39">
+        <v>3.1219044989073814E-2</v>
+      </c>
+      <c r="E5" s="38">
+        <v>1.9267628015677642E-2</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="40">
+        <f>(D5-D4)/(AVERAGE(D4:D5))</f>
+        <v>3.3183355073498663E-2</v>
+      </c>
+      <c r="H5" s="40">
+        <f>(D5-D4)/D4</f>
+        <v>3.3743211558735518E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="33">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0.62766055555555555</v>
+      </c>
+      <c r="D6" s="39">
+        <v>8.4485917713194789E-4</v>
+      </c>
+      <c r="E6" s="38">
+        <v>4.6608038923739314E-4</v>
+      </c>
+      <c r="F6" s="45"/>
+      <c r="G6" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="33">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="37">
+        <v>1.0648361111111111</v>
+      </c>
+      <c r="D7" s="39">
+        <v>1.496013399019277E-4</v>
+      </c>
+      <c r="E7" s="38">
+        <v>7.0086486756693633E-5</v>
+      </c>
+      <c r="F7" s="45"/>
+      <c r="G7" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="42">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="42">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="44"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="37">
+        <v>4.2666666666666666</v>
+      </c>
+      <c r="D13" s="43">
+        <v>7.8129160408279955E-4</v>
+      </c>
+      <c r="E13" s="38">
+        <v>6.8766974675303508E-4</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="40">
+        <f>(D13-D11)/(AVERAGE(D11,D13))</f>
+        <v>1.1847479417214115</v>
+      </c>
+      <c r="H13" s="40">
+        <f>(D13-D11)/D11</f>
+        <v>2.9064580204139978</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="37">
+        <v>6.0704150062534445</v>
+      </c>
+      <c r="D17" s="43">
+        <v>8.5798222225815857E-4</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="37">
+        <v>6.3238294003539472</v>
+      </c>
+      <c r="D18" s="43">
+        <v>9.0717097911678316E-3</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="37">
+        <v>6.7190543635487447</v>
+      </c>
+      <c r="D19" s="43">
+        <v>3.9600004763096792E-3</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection sqref="A1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2197,2551 +2504,2551 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="27" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="52"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="13"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="32" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="28" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="17">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17">
-        <v>1</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
         <v>2000</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="11">
         <v>100</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="14">
         <v>23180.2118365764</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="11">
         <f>J3/3600</f>
         <v>6.4389477323823332</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="12">
         <v>1.17575482654694E-3</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="19"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="17">
-        <v>1</v>
-      </c>
-      <c r="E4" s="17">
-        <v>1</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
         <v>2000</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="11">
         <v>100</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="14">
         <v>21523.505883932099</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="11">
         <f t="shared" ref="K4:K34" si="0">J4/3600</f>
         <v>5.9787516344255831</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="12">
         <v>1.1229335796029501E-3</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="19"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
         <v>2000</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="11">
         <v>100</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="14">
         <v>20177.7275485992</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="11">
         <f t="shared" si="0"/>
         <v>5.6049243190553328</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="12">
         <v>6.6711444635529898E-4</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="19"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="17">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17">
-        <v>1</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
         <v>2000</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="11">
         <v>100</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="14">
         <v>20192.630763530698</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="11">
         <f t="shared" si="0"/>
         <v>5.6090641009807491</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="12">
         <v>1.13423089624596E-3</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="19"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="17">
-        <v>1</v>
-      </c>
-      <c r="E7" s="17">
-        <v>1</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
         <v>2000</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="11">
         <v>100</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="14">
         <v>20976.977820873199</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="11">
         <f t="shared" si="0"/>
         <v>5.8269382835758883</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="12">
         <v>7.3137078871278298E-4</v>
       </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="19"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="17">
-        <v>1</v>
-      </c>
-      <c r="E8" s="17">
-        <v>1</v>
-      </c>
-      <c r="F8" s="17">
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
         <v>2000</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="11">
         <v>100</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="14">
         <v>21003.214015722198</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="11">
         <f t="shared" si="0"/>
         <v>5.8342261154783888</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="12">
         <v>6.3157246624733095E-4</v>
       </c>
-      <c r="M8" s="31"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="19"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="17">
-        <v>1</v>
-      </c>
-      <c r="E9" s="17">
-        <v>1</v>
-      </c>
-      <c r="F9" s="17">
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
         <v>2000</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="11">
         <v>100</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="14">
         <v>22152.567581891999</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="11">
         <f t="shared" si="0"/>
         <v>6.1534909949699994</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="12">
         <v>8.4873515576068602E-4</v>
       </c>
-      <c r="M9" s="31"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="19"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="17">
-        <v>1</v>
-      </c>
-      <c r="E10" s="17">
-        <v>1</v>
-      </c>
-      <c r="F10" s="17">
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
         <v>2000</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="11">
         <v>100</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="14">
         <v>24620.765019655199</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="11">
         <f t="shared" si="0"/>
         <v>6.839101394348666</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="12">
         <v>7.4418860033316503E-4</v>
       </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="19"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="17">
-        <v>1</v>
-      </c>
-      <c r="E11" s="17">
-        <v>1</v>
-      </c>
-      <c r="F11" s="17">
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
         <v>2000</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="11">
         <v>100</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="14">
         <v>23019.951321125001</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="11">
         <f t="shared" si="0"/>
         <v>6.3944309225347222</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="12">
         <v>5.6879314450592605E-4</v>
       </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="19"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="17">
-        <v>1</v>
-      </c>
-      <c r="E12" s="17">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17">
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
         <v>2000</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="11">
         <v>100</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="14">
         <v>21687.388433217999</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="11">
         <f t="shared" si="0"/>
         <v>6.0242745647827771</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="12">
         <v>9.5512831827054595E-4</v>
       </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="19"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6">
         <f>AVERAGE(J3:J12)</f>
         <v>21853.494022512401</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="5">
         <f t="shared" si="0"/>
         <v>6.0704150062534445</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="19">
         <f>AVERAGE(L3:L12)</f>
         <v>8.5798222225815857E-4</v>
       </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="37"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="26"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="17">
-        <v>1</v>
-      </c>
-      <c r="E14" s="17">
-        <v>1</v>
-      </c>
-      <c r="F14" s="17">
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
         <v>2000</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="11">
         <v>100</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="15">
         <v>18841.389016151399</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="11">
         <f t="shared" si="0"/>
         <v>5.2337191711531661</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="16">
         <v>5.1465668059079098E-3</v>
       </c>
-      <c r="M14" s="31"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="19"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="17">
-        <v>1</v>
-      </c>
-      <c r="E15" s="17">
-        <v>1</v>
-      </c>
-      <c r="F15" s="17">
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
         <v>2000</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="11">
         <v>100</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="15">
         <v>20833.115568161</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="11">
         <f t="shared" si="0"/>
         <v>5.7869765467113892</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="16">
         <v>1.3961991194119099E-2</v>
       </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="19"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="17">
-        <v>1</v>
-      </c>
-      <c r="E16" s="17">
-        <v>1</v>
-      </c>
-      <c r="F16" s="17">
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11">
         <v>2000</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="11">
         <v>100</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="15">
         <v>21025.764034986401</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="11">
         <f t="shared" si="0"/>
         <v>5.8404900097184447</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="16">
         <v>1.0864090621781701E-2</v>
       </c>
-      <c r="M16" s="31"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="19"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="17">
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11">
         <v>2000</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="11">
         <v>100</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="15">
         <v>22418.698473930301</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="11">
         <f t="shared" si="0"/>
         <v>6.2274162427584168</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="16">
         <v>2.3707736806735601E-3</v>
       </c>
-      <c r="M17" s="31"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="19"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="13"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="17">
-        <v>1</v>
-      </c>
-      <c r="E18" s="17">
-        <v>1</v>
-      </c>
-      <c r="F18" s="17">
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11">
         <v>2000</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="11">
         <v>100</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="15">
         <v>22524.198348045298</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="11">
         <f t="shared" si="0"/>
         <v>6.256721763345916</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="16">
         <v>3.99287549452698E-3</v>
       </c>
-      <c r="M18" s="31"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="19"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="17">
-        <v>1</v>
-      </c>
-      <c r="E19" s="17">
-        <v>1</v>
-      </c>
-      <c r="F19" s="17">
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11">
         <v>2000</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="11">
         <v>100</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="15">
         <v>24018.2232322692</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="11">
         <f t="shared" si="0"/>
         <v>6.6717286756303329</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="16">
         <v>3.1223184648605899E-2</v>
       </c>
-      <c r="M19" s="31"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="19"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="17">
-        <v>1</v>
-      </c>
-      <c r="E20" s="17">
-        <v>1</v>
-      </c>
-      <c r="F20" s="17">
+      <c r="D20" s="11">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11">
         <v>2000</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="11">
         <v>100</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="15">
         <v>24239.996740579601</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="11">
         <f t="shared" si="0"/>
         <v>6.7333324279387785</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="16">
         <v>1.66328732328985E-3</v>
       </c>
-      <c r="M20" s="31"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="19"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="13"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="17">
-        <v>1</v>
-      </c>
-      <c r="E21" s="17">
-        <v>1</v>
-      </c>
-      <c r="F21" s="17">
+      <c r="D21" s="11">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11">
         <v>2000</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="11">
         <v>100</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="15">
         <v>24359.596348762501</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="11">
         <f t="shared" si="0"/>
         <v>6.7665545413229173</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="16">
         <v>1.70606220983389E-3</v>
       </c>
-      <c r="M21" s="31"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="19"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="13"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="17">
-        <v>1</v>
-      </c>
-      <c r="E22" s="17">
-        <v>1</v>
-      </c>
-      <c r="F22" s="17">
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11">
         <v>2000</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="11">
         <v>100</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="15">
         <v>24705.9916727542</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="11">
         <f t="shared" si="0"/>
         <v>6.8627754646539447</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="16">
         <v>1.7233669743861198E-2</v>
       </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="19"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="17">
-        <v>1</v>
-      </c>
-      <c r="E23" s="17">
-        <v>1</v>
-      </c>
-      <c r="F23" s="17">
+      <c r="D23" s="11">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11">
         <v>2000</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="11">
         <v>100</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="15">
         <v>24690.8849771022</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="11">
         <f t="shared" si="0"/>
         <v>6.8585791603061663</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L23" s="16">
         <v>2.5545961890781998E-3</v>
       </c>
-      <c r="M23" s="31"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="19"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6">
         <f>AVERAGE(J14:J23)</f>
         <v>22765.78584127421</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="5">
         <f t="shared" si="0"/>
         <v>6.3238294003539472</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="7">
         <f>AVERAGE(L14:L23)</f>
         <v>9.0717097911678316E-3</v>
       </c>
-      <c r="M24" s="39"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="37"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="26"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="17">
-        <v>1</v>
-      </c>
-      <c r="E25" s="17">
-        <v>1</v>
-      </c>
-      <c r="F25" s="17">
+      <c r="D25" s="11">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11">
         <v>2000</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="11">
         <v>100</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="40" t="s">
+      <c r="I25" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="14">
         <v>23052.5304625034</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="11">
         <f t="shared" si="0"/>
         <v>6.4034806840287226</v>
       </c>
-      <c r="L25" s="34">
+      <c r="L25" s="23">
         <v>1.2223468423458799E-3</v>
       </c>
-      <c r="M25" s="31"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="19"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="17">
-        <v>1</v>
-      </c>
-      <c r="E26" s="17">
-        <v>1</v>
-      </c>
-      <c r="F26" s="17">
+      <c r="D26" s="11">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11">
         <v>2000</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="11">
         <v>100</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="40" t="s">
+      <c r="I26" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="14">
         <v>23238.550406217499</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="11">
         <f t="shared" si="0"/>
         <v>6.4551528906159721</v>
       </c>
-      <c r="L26" s="34">
+      <c r="L26" s="23">
         <v>1.1911683133391899E-2</v>
       </c>
-      <c r="M26" s="31"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="19"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="17">
-        <v>1</v>
-      </c>
-      <c r="E27" s="17">
-        <v>1</v>
-      </c>
-      <c r="F27" s="17">
+      <c r="D27" s="11">
+        <v>1</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
+      <c r="F27" s="11">
         <v>2000</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="11">
         <v>100</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="40" t="s">
+      <c r="I27" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="14">
         <v>23583.562618494001</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="11">
         <f t="shared" si="0"/>
         <v>6.5509896162483336</v>
       </c>
-      <c r="L27" s="34">
+      <c r="L27" s="23">
         <v>8.3625180650533093E-3</v>
       </c>
-      <c r="M27" s="31"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="19"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="13"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="17">
-        <v>1</v>
-      </c>
-      <c r="E28" s="17">
-        <v>1</v>
-      </c>
-      <c r="F28" s="17">
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1</v>
+      </c>
+      <c r="F28" s="11">
         <v>2000</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="11">
         <v>100</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="40" t="s">
+      <c r="I28" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="14">
         <v>24381.9196577072</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="11">
         <f t="shared" si="0"/>
         <v>6.7727554604742224</v>
       </c>
-      <c r="L28" s="34">
+      <c r="L28" s="23">
         <v>4.6213377221490599E-4</v>
       </c>
-      <c r="M28" s="31"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="19"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="13"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="17">
-        <v>1</v>
-      </c>
-      <c r="E29" s="17">
-        <v>1</v>
-      </c>
-      <c r="F29" s="17">
+      <c r="D29" s="11">
+        <v>1</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1</v>
+      </c>
+      <c r="F29" s="11">
         <v>2000</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="11">
         <v>100</v>
       </c>
-      <c r="H29" s="17" t="s">
+      <c r="H29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="40" t="s">
+      <c r="I29" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="14">
         <v>24416.2316024303</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="11">
         <f t="shared" si="0"/>
         <v>6.7822865562306385</v>
       </c>
-      <c r="L29" s="34">
+      <c r="L29" s="23">
         <v>2.5614527464801699E-3</v>
       </c>
-      <c r="M29" s="31"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="19"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="13"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="17">
-        <v>1</v>
-      </c>
-      <c r="E30" s="17">
-        <v>1</v>
-      </c>
-      <c r="F30" s="17">
+      <c r="D30" s="11">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
+      <c r="F30" s="11">
         <v>2000</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="11">
         <v>100</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="40" t="s">
+      <c r="I30" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="14">
         <v>24455.932810306502</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="11">
         <f t="shared" si="0"/>
         <v>6.7933146695295834</v>
       </c>
-      <c r="L30" s="34">
+      <c r="L30" s="23">
         <v>1.0201968774120099E-3</v>
       </c>
-      <c r="M30" s="31"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="19"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="13"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="17">
-        <v>1</v>
-      </c>
-      <c r="E31" s="17">
-        <v>1</v>
-      </c>
-      <c r="F31" s="17">
+      <c r="D31" s="11">
+        <v>1</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1</v>
+      </c>
+      <c r="F31" s="11">
         <v>2000</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="11">
         <v>100</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="40" t="s">
+      <c r="I31" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="14">
         <v>24556.540443420399</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="11">
         <f t="shared" si="0"/>
         <v>6.821261234283444</v>
       </c>
-      <c r="L31" s="34">
+      <c r="L31" s="23">
         <v>5.45704518390174E-3</v>
       </c>
-      <c r="M31" s="31"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="19"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="13"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="17">
-        <v>1</v>
-      </c>
-      <c r="E32" s="17">
-        <v>1</v>
-      </c>
-      <c r="F32" s="17">
+      <c r="D32" s="11">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1</v>
+      </c>
+      <c r="F32" s="11">
         <v>2000</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="11">
         <v>100</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="40" t="s">
+      <c r="I32" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="14">
         <v>24645.543615817998</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="11">
         <f t="shared" si="0"/>
         <v>6.8459843377272218</v>
       </c>
-      <c r="L32" s="34">
+      <c r="L32" s="23">
         <v>3.0650898637044799E-3</v>
       </c>
-      <c r="M32" s="31"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="19"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="13"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="17">
-        <v>1</v>
-      </c>
-      <c r="E33" s="17">
-        <v>1</v>
-      </c>
-      <c r="F33" s="17">
+      <c r="D33" s="11">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1</v>
+      </c>
+      <c r="F33" s="11">
         <v>2000</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="11">
         <v>100</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="40" t="s">
+      <c r="I33" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="14">
         <v>24718.894727945299</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="11">
         <f t="shared" si="0"/>
         <v>6.866359646651472</v>
       </c>
-      <c r="L33" s="34">
+      <c r="L33" s="23">
         <v>3.2380288392575901E-3</v>
       </c>
-      <c r="M33" s="31"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="19"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="13"/>
     </row>
     <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="17">
-        <v>1</v>
-      </c>
-      <c r="E34" s="17">
-        <v>1</v>
-      </c>
-      <c r="F34" s="24">
+      <c r="D34" s="11">
+        <v>1</v>
+      </c>
+      <c r="E34" s="11">
+        <v>1</v>
+      </c>
+      <c r="F34" s="18">
         <v>2000</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="18">
         <v>100</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="H34" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="40" t="s">
+      <c r="I34" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34" s="24">
         <v>24836.250742912202</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="11">
         <f t="shared" si="0"/>
         <v>6.8989585396978335</v>
       </c>
-      <c r="L34" s="36">
+      <c r="L34" s="25">
         <v>2.2995094393347998E-3</v>
       </c>
-      <c r="M34" s="31"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="19"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="13"/>
     </row>
     <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="11">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6">
         <f>AVERAGE(J25:J34)</f>
         <v>24188.59570877548</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="5">
         <f t="shared" ref="K35" si="1">J35/3600</f>
         <v>6.7190543635487447</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="7">
         <f>AVERAGE(L25:L34)</f>
         <v>3.9600004763096792E-3</v>
       </c>
-      <c r="M35" s="39"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="37"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="26"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L36" s="8"/>
+      <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L37" s="8"/>
+      <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L38" s="8"/>
+      <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L39" s="8"/>
+      <c r="L39" s="3"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L40" s="8"/>
+      <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L41" s="8"/>
+      <c r="L41" s="3"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L42" s="8"/>
+      <c r="L42" s="3"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L43" s="8"/>
+      <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L44" s="8"/>
+      <c r="L44" s="3"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L45" s="8"/>
+      <c r="L45" s="3"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L46" s="8"/>
+      <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L47" s="8"/>
+      <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L48" s="8"/>
+      <c r="L48" s="3"/>
     </row>
     <row r="49" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L49" s="8"/>
+      <c r="L49" s="3"/>
     </row>
     <row r="50" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L50" s="8"/>
+      <c r="L50" s="3"/>
     </row>
     <row r="51" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L51" s="8"/>
+      <c r="L51" s="3"/>
     </row>
     <row r="52" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L52" s="8"/>
+      <c r="L52" s="3"/>
     </row>
     <row r="53" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L53" s="8"/>
+      <c r="L53" s="3"/>
     </row>
     <row r="54" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L54" s="8"/>
+      <c r="L54" s="3"/>
     </row>
     <row r="55" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L55" s="8"/>
+      <c r="L55" s="3"/>
     </row>
     <row r="56" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L56" s="8"/>
+      <c r="L56" s="3"/>
     </row>
     <row r="57" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L57" s="8"/>
+      <c r="L57" s="3"/>
     </row>
     <row r="58" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L58" s="8"/>
+      <c r="L58" s="3"/>
     </row>
     <row r="59" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L59" s="8"/>
+      <c r="L59" s="3"/>
     </row>
     <row r="60" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L60" s="8"/>
+      <c r="L60" s="3"/>
     </row>
     <row r="61" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L61" s="8"/>
+      <c r="L61" s="3"/>
     </row>
     <row r="62" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L62" s="8"/>
+      <c r="L62" s="3"/>
     </row>
     <row r="63" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L63" s="8"/>
+      <c r="L63" s="3"/>
     </row>
     <row r="64" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L64" s="8"/>
+      <c r="L64" s="3"/>
     </row>
     <row r="65" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L65" s="8"/>
+      <c r="L65" s="3"/>
     </row>
     <row r="66" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L66" s="8"/>
+      <c r="L66" s="3"/>
     </row>
     <row r="67" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L67" s="8"/>
+      <c r="L67" s="3"/>
     </row>
     <row r="68" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L68" s="8"/>
+      <c r="L68" s="3"/>
     </row>
     <row r="69" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L69" s="8"/>
+      <c r="L69" s="3"/>
     </row>
     <row r="70" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L70" s="8"/>
+      <c r="L70" s="3"/>
     </row>
     <row r="71" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L71" s="8"/>
+      <c r="L71" s="3"/>
     </row>
     <row r="72" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L72" s="8"/>
+      <c r="L72" s="3"/>
     </row>
     <row r="73" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L73" s="8"/>
+      <c r="L73" s="3"/>
     </row>
     <row r="74" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L74" s="8"/>
+      <c r="L74" s="3"/>
     </row>
     <row r="75" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L75" s="8"/>
+      <c r="L75" s="3"/>
     </row>
     <row r="76" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L76" s="8"/>
+      <c r="L76" s="3"/>
     </row>
     <row r="77" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L77" s="8"/>
+      <c r="L77" s="3"/>
     </row>
     <row r="78" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L78" s="8"/>
+      <c r="L78" s="3"/>
     </row>
     <row r="79" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L79" s="8"/>
+      <c r="L79" s="3"/>
     </row>
     <row r="80" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L80" s="8"/>
+      <c r="L80" s="3"/>
     </row>
     <row r="81" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L81" s="8"/>
+      <c r="L81" s="3"/>
     </row>
     <row r="82" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L82" s="8"/>
+      <c r="L82" s="3"/>
     </row>
     <row r="83" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L83" s="8"/>
+      <c r="L83" s="3"/>
     </row>
     <row r="84" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L84" s="8"/>
+      <c r="L84" s="3"/>
     </row>
     <row r="85" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L85" s="8"/>
+      <c r="L85" s="3"/>
     </row>
     <row r="86" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L86" s="8"/>
+      <c r="L86" s="3"/>
     </row>
     <row r="87" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L87" s="8"/>
+      <c r="L87" s="3"/>
     </row>
     <row r="88" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L88" s="8"/>
+      <c r="L88" s="3"/>
     </row>
     <row r="89" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L89" s="8"/>
+      <c r="L89" s="3"/>
     </row>
     <row r="90" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L90" s="8"/>
+      <c r="L90" s="3"/>
     </row>
     <row r="91" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L91" s="8"/>
+      <c r="L91" s="3"/>
     </row>
     <row r="92" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L92" s="8"/>
+      <c r="L92" s="3"/>
     </row>
     <row r="93" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L93" s="8"/>
+      <c r="L93" s="3"/>
     </row>
     <row r="94" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L94" s="8"/>
+      <c r="L94" s="3"/>
     </row>
     <row r="95" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L95" s="8"/>
+      <c r="L95" s="3"/>
     </row>
     <row r="96" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L96" s="8"/>
+      <c r="L96" s="3"/>
     </row>
     <row r="97" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L97" s="8"/>
+      <c r="L97" s="3"/>
     </row>
     <row r="98" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L98" s="8"/>
+      <c r="L98" s="3"/>
     </row>
     <row r="99" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L99" s="8"/>
+      <c r="L99" s="3"/>
     </row>
     <row r="100" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L100" s="8"/>
+      <c r="L100" s="3"/>
     </row>
     <row r="101" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L101" s="8"/>
+      <c r="L101" s="3"/>
     </row>
     <row r="102" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L102" s="8"/>
+      <c r="L102" s="3"/>
     </row>
     <row r="103" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L103" s="8"/>
+      <c r="L103" s="3"/>
     </row>
     <row r="104" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L104" s="8"/>
+      <c r="L104" s="3"/>
     </row>
     <row r="105" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L105" s="8"/>
+      <c r="L105" s="3"/>
     </row>
     <row r="106" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L106" s="8"/>
+      <c r="L106" s="3"/>
     </row>
     <row r="107" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L107" s="8"/>
+      <c r="L107" s="3"/>
     </row>
     <row r="108" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L108" s="8"/>
+      <c r="L108" s="3"/>
     </row>
     <row r="109" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L109" s="8"/>
+      <c r="L109" s="3"/>
     </row>
     <row r="110" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L110" s="8"/>
+      <c r="L110" s="3"/>
     </row>
     <row r="111" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L111" s="8"/>
+      <c r="L111" s="3"/>
     </row>
     <row r="112" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L112" s="8"/>
+      <c r="L112" s="3"/>
     </row>
     <row r="113" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L113" s="8"/>
+      <c r="L113" s="3"/>
     </row>
     <row r="114" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L114" s="8"/>
+      <c r="L114" s="3"/>
     </row>
     <row r="115" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L115" s="8"/>
+      <c r="L115" s="3"/>
     </row>
     <row r="116" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L116" s="8"/>
+      <c r="L116" s="3"/>
     </row>
     <row r="117" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L117" s="8"/>
+      <c r="L117" s="3"/>
     </row>
     <row r="118" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L118" s="8"/>
+      <c r="L118" s="3"/>
     </row>
     <row r="119" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L119" s="8"/>
+      <c r="L119" s="3"/>
     </row>
     <row r="120" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L120" s="8"/>
+      <c r="L120" s="3"/>
     </row>
     <row r="121" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L121" s="8"/>
+      <c r="L121" s="3"/>
     </row>
     <row r="122" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L122" s="8"/>
+      <c r="L122" s="3"/>
     </row>
     <row r="123" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L123" s="8"/>
+      <c r="L123" s="3"/>
     </row>
     <row r="124" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L124" s="8"/>
+      <c r="L124" s="3"/>
     </row>
     <row r="125" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L125" s="8"/>
+      <c r="L125" s="3"/>
     </row>
     <row r="126" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L126" s="8"/>
+      <c r="L126" s="3"/>
     </row>
     <row r="127" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L127" s="8"/>
+      <c r="L127" s="3"/>
     </row>
     <row r="128" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L128" s="8"/>
+      <c r="L128" s="3"/>
     </row>
     <row r="129" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L129" s="8"/>
+      <c r="L129" s="3"/>
     </row>
     <row r="130" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L130" s="8"/>
+      <c r="L130" s="3"/>
     </row>
     <row r="131" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L131" s="8"/>
+      <c r="L131" s="3"/>
     </row>
     <row r="132" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L132" s="8"/>
+      <c r="L132" s="3"/>
     </row>
     <row r="133" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L133" s="8"/>
+      <c r="L133" s="3"/>
     </row>
     <row r="134" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L134" s="8"/>
+      <c r="L134" s="3"/>
     </row>
     <row r="135" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L135" s="8"/>
+      <c r="L135" s="3"/>
     </row>
     <row r="136" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L136" s="8"/>
+      <c r="L136" s="3"/>
     </row>
     <row r="137" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L137" s="8"/>
+      <c r="L137" s="3"/>
     </row>
     <row r="138" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L138" s="8"/>
+      <c r="L138" s="3"/>
     </row>
     <row r="139" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L139" s="8"/>
+      <c r="L139" s="3"/>
     </row>
     <row r="140" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L140" s="8"/>
+      <c r="L140" s="3"/>
     </row>
     <row r="141" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L141" s="8"/>
+      <c r="L141" s="3"/>
     </row>
     <row r="142" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L142" s="8"/>
+      <c r="L142" s="3"/>
     </row>
     <row r="143" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L143" s="8"/>
+      <c r="L143" s="3"/>
     </row>
     <row r="144" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L144" s="8"/>
+      <c r="L144" s="3"/>
     </row>
     <row r="145" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L145" s="8"/>
+      <c r="L145" s="3"/>
     </row>
     <row r="146" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L146" s="8"/>
+      <c r="L146" s="3"/>
     </row>
     <row r="147" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L147" s="8"/>
+      <c r="L147" s="3"/>
     </row>
     <row r="148" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L148" s="8"/>
+      <c r="L148" s="3"/>
     </row>
     <row r="149" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L149" s="8"/>
+      <c r="L149" s="3"/>
     </row>
     <row r="150" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L150" s="8"/>
+      <c r="L150" s="3"/>
     </row>
     <row r="151" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L151" s="8"/>
+      <c r="L151" s="3"/>
     </row>
     <row r="152" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L152" s="8"/>
+      <c r="L152" s="3"/>
     </row>
     <row r="153" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L153" s="8"/>
+      <c r="L153" s="3"/>
     </row>
     <row r="154" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L154" s="8"/>
+      <c r="L154" s="3"/>
     </row>
     <row r="155" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L155" s="8"/>
+      <c r="L155" s="3"/>
     </row>
     <row r="156" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L156" s="8"/>
+      <c r="L156" s="3"/>
     </row>
     <row r="157" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L157" s="8"/>
+      <c r="L157" s="3"/>
     </row>
     <row r="158" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L158" s="8"/>
+      <c r="L158" s="3"/>
     </row>
     <row r="159" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L159" s="8"/>
+      <c r="L159" s="3"/>
     </row>
     <row r="160" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L160" s="8"/>
+      <c r="L160" s="3"/>
     </row>
     <row r="161" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L161" s="8"/>
+      <c r="L161" s="3"/>
     </row>
     <row r="162" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L162" s="8"/>
+      <c r="L162" s="3"/>
     </row>
     <row r="163" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L163" s="8"/>
+      <c r="L163" s="3"/>
     </row>
     <row r="164" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L164" s="8"/>
+      <c r="L164" s="3"/>
     </row>
     <row r="165" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L165" s="8"/>
+      <c r="L165" s="3"/>
     </row>
     <row r="166" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L166" s="8"/>
+      <c r="L166" s="3"/>
     </row>
     <row r="167" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L167" s="8"/>
+      <c r="L167" s="3"/>
     </row>
     <row r="168" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L168" s="8"/>
+      <c r="L168" s="3"/>
     </row>
     <row r="169" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L169" s="8"/>
+      <c r="L169" s="3"/>
     </row>
     <row r="170" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L170" s="8"/>
+      <c r="L170" s="3"/>
     </row>
     <row r="171" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L171" s="8"/>
+      <c r="L171" s="3"/>
     </row>
     <row r="172" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L172" s="8"/>
+      <c r="L172" s="3"/>
     </row>
     <row r="173" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L173" s="8"/>
+      <c r="L173" s="3"/>
     </row>
     <row r="174" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L174" s="8"/>
+      <c r="L174" s="3"/>
     </row>
     <row r="175" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L175" s="8"/>
+      <c r="L175" s="3"/>
     </row>
     <row r="176" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L176" s="8"/>
+      <c r="L176" s="3"/>
     </row>
     <row r="177" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L177" s="8"/>
+      <c r="L177" s="3"/>
     </row>
     <row r="178" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L178" s="8"/>
+      <c r="L178" s="3"/>
     </row>
     <row r="179" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L179" s="8"/>
+      <c r="L179" s="3"/>
     </row>
     <row r="180" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L180" s="8"/>
+      <c r="L180" s="3"/>
     </row>
     <row r="181" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L181" s="8"/>
+      <c r="L181" s="3"/>
     </row>
     <row r="182" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L182" s="8"/>
+      <c r="L182" s="3"/>
     </row>
     <row r="183" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L183" s="8"/>
+      <c r="L183" s="3"/>
     </row>
     <row r="184" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L184" s="8"/>
+      <c r="L184" s="3"/>
     </row>
     <row r="185" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L185" s="8"/>
+      <c r="L185" s="3"/>
     </row>
     <row r="186" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L186" s="8"/>
+      <c r="L186" s="3"/>
     </row>
     <row r="187" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L187" s="8"/>
+      <c r="L187" s="3"/>
     </row>
     <row r="188" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L188" s="8"/>
+      <c r="L188" s="3"/>
     </row>
     <row r="189" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L189" s="8"/>
+      <c r="L189" s="3"/>
     </row>
     <row r="190" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L190" s="8"/>
+      <c r="L190" s="3"/>
     </row>
     <row r="191" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L191" s="8"/>
+      <c r="L191" s="3"/>
     </row>
     <row r="192" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L192" s="8"/>
+      <c r="L192" s="3"/>
     </row>
     <row r="193" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L193" s="8"/>
+      <c r="L193" s="3"/>
     </row>
     <row r="194" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L194" s="8"/>
+      <c r="L194" s="3"/>
     </row>
     <row r="195" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L195" s="8"/>
+      <c r="L195" s="3"/>
     </row>
     <row r="196" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L196" s="8"/>
+      <c r="L196" s="3"/>
     </row>
     <row r="197" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L197" s="8"/>
+      <c r="L197" s="3"/>
     </row>
     <row r="198" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L198" s="8"/>
+      <c r="L198" s="3"/>
     </row>
     <row r="199" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L199" s="8"/>
+      <c r="L199" s="3"/>
     </row>
     <row r="200" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L200" s="8"/>
+      <c r="L200" s="3"/>
     </row>
     <row r="201" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L201" s="8"/>
+      <c r="L201" s="3"/>
     </row>
     <row r="202" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L202" s="8"/>
+      <c r="L202" s="3"/>
     </row>
     <row r="203" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L203" s="8"/>
+      <c r="L203" s="3"/>
     </row>
     <row r="204" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L204" s="8"/>
+      <c r="L204" s="3"/>
     </row>
     <row r="205" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L205" s="8"/>
+      <c r="L205" s="3"/>
     </row>
     <row r="206" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L206" s="8"/>
+      <c r="L206" s="3"/>
     </row>
     <row r="207" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L207" s="8"/>
+      <c r="L207" s="3"/>
     </row>
     <row r="208" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L208" s="8"/>
+      <c r="L208" s="3"/>
     </row>
     <row r="209" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L209" s="8"/>
+      <c r="L209" s="3"/>
     </row>
     <row r="210" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L210" s="8"/>
+      <c r="L210" s="3"/>
     </row>
     <row r="211" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L211" s="8"/>
+      <c r="L211" s="3"/>
     </row>
     <row r="212" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L212" s="8"/>
+      <c r="L212" s="3"/>
     </row>
     <row r="213" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L213" s="8"/>
+      <c r="L213" s="3"/>
     </row>
     <row r="214" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L214" s="8"/>
+      <c r="L214" s="3"/>
     </row>
     <row r="215" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L215" s="8"/>
+      <c r="L215" s="3"/>
     </row>
     <row r="216" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L216" s="8"/>
+      <c r="L216" s="3"/>
     </row>
     <row r="217" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L217" s="8"/>
+      <c r="L217" s="3"/>
     </row>
     <row r="218" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L218" s="8"/>
+      <c r="L218" s="3"/>
     </row>
     <row r="219" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L219" s="8"/>
+      <c r="L219" s="3"/>
     </row>
     <row r="220" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L220" s="8"/>
+      <c r="L220" s="3"/>
     </row>
     <row r="221" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L221" s="8"/>
+      <c r="L221" s="3"/>
     </row>
     <row r="222" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L222" s="8"/>
+      <c r="L222" s="3"/>
     </row>
     <row r="223" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L223" s="8"/>
+      <c r="L223" s="3"/>
     </row>
     <row r="224" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L224" s="8"/>
+      <c r="L224" s="3"/>
     </row>
     <row r="225" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L225" s="8"/>
+      <c r="L225" s="3"/>
     </row>
     <row r="226" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L226" s="8"/>
+      <c r="L226" s="3"/>
     </row>
     <row r="227" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L227" s="8"/>
+      <c r="L227" s="3"/>
     </row>
     <row r="228" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L228" s="8"/>
+      <c r="L228" s="3"/>
     </row>
     <row r="229" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L229" s="8"/>
+      <c r="L229" s="3"/>
     </row>
     <row r="230" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L230" s="8"/>
+      <c r="L230" s="3"/>
     </row>
     <row r="231" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L231" s="8"/>
+      <c r="L231" s="3"/>
     </row>
     <row r="232" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L232" s="8"/>
+      <c r="L232" s="3"/>
     </row>
     <row r="233" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L233" s="8"/>
+      <c r="L233" s="3"/>
     </row>
     <row r="234" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L234" s="8"/>
+      <c r="L234" s="3"/>
     </row>
     <row r="235" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L235" s="8"/>
+      <c r="L235" s="3"/>
     </row>
     <row r="236" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L236" s="8"/>
+      <c r="L236" s="3"/>
     </row>
     <row r="237" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L237" s="8"/>
+      <c r="L237" s="3"/>
     </row>
     <row r="238" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L238" s="8"/>
+      <c r="L238" s="3"/>
     </row>
     <row r="239" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L239" s="8"/>
+      <c r="L239" s="3"/>
     </row>
     <row r="240" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L240" s="8"/>
+      <c r="L240" s="3"/>
     </row>
     <row r="241" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L241" s="8"/>
+      <c r="L241" s="3"/>
     </row>
     <row r="242" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L242" s="8"/>
+      <c r="L242" s="3"/>
     </row>
     <row r="243" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L243" s="8"/>
+      <c r="L243" s="3"/>
     </row>
     <row r="244" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L244" s="8"/>
+      <c r="L244" s="3"/>
     </row>
     <row r="245" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L245" s="8"/>
+      <c r="L245" s="3"/>
     </row>
     <row r="246" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L246" s="8"/>
+      <c r="L246" s="3"/>
     </row>
     <row r="247" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L247" s="8"/>
+      <c r="L247" s="3"/>
     </row>
     <row r="248" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L248" s="8"/>
+      <c r="L248" s="3"/>
     </row>
     <row r="249" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L249" s="8"/>
+      <c r="L249" s="3"/>
     </row>
     <row r="250" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L250" s="8"/>
+      <c r="L250" s="3"/>
     </row>
     <row r="251" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L251" s="8"/>
+      <c r="L251" s="3"/>
     </row>
     <row r="252" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L252" s="8"/>
+      <c r="L252" s="3"/>
     </row>
     <row r="253" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L253" s="8"/>
+      <c r="L253" s="3"/>
     </row>
     <row r="254" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L254" s="8"/>
+      <c r="L254" s="3"/>
     </row>
     <row r="255" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L255" s="8"/>
+      <c r="L255" s="3"/>
     </row>
     <row r="256" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L256" s="8"/>
+      <c r="L256" s="3"/>
     </row>
     <row r="257" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L257" s="8"/>
+      <c r="L257" s="3"/>
     </row>
     <row r="258" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L258" s="8"/>
+      <c r="L258" s="3"/>
     </row>
     <row r="259" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L259" s="8"/>
+      <c r="L259" s="3"/>
     </row>
     <row r="260" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L260" s="8"/>
+      <c r="L260" s="3"/>
     </row>
     <row r="261" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L261" s="8"/>
+      <c r="L261" s="3"/>
     </row>
     <row r="262" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L262" s="8"/>
+      <c r="L262" s="3"/>
     </row>
     <row r="263" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L263" s="8"/>
+      <c r="L263" s="3"/>
     </row>
     <row r="264" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L264" s="8"/>
+      <c r="L264" s="3"/>
     </row>
     <row r="265" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L265" s="8"/>
+      <c r="L265" s="3"/>
     </row>
     <row r="266" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L266" s="8"/>
+      <c r="L266" s="3"/>
     </row>
     <row r="267" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L267" s="8"/>
+      <c r="L267" s="3"/>
     </row>
     <row r="268" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L268" s="8"/>
+      <c r="L268" s="3"/>
     </row>
     <row r="269" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L269" s="8"/>
+      <c r="L269" s="3"/>
     </row>
     <row r="270" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L270" s="8"/>
+      <c r="L270" s="3"/>
     </row>
     <row r="271" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L271" s="8"/>
+      <c r="L271" s="3"/>
     </row>
     <row r="272" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L272" s="8"/>
+      <c r="L272" s="3"/>
     </row>
     <row r="273" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L273" s="8"/>
+      <c r="L273" s="3"/>
     </row>
     <row r="274" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L274" s="8"/>
+      <c r="L274" s="3"/>
     </row>
     <row r="275" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L275" s="8"/>
+      <c r="L275" s="3"/>
     </row>
     <row r="276" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L276" s="8"/>
+      <c r="L276" s="3"/>
     </row>
     <row r="277" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L277" s="8"/>
+      <c r="L277" s="3"/>
     </row>
     <row r="278" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L278" s="8"/>
+      <c r="L278" s="3"/>
     </row>
     <row r="279" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L279" s="8"/>
+      <c r="L279" s="3"/>
     </row>
     <row r="280" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L280" s="8"/>
+      <c r="L280" s="3"/>
     </row>
     <row r="281" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L281" s="8"/>
+      <c r="L281" s="3"/>
     </row>
     <row r="282" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L282" s="8"/>
+      <c r="L282" s="3"/>
     </row>
     <row r="283" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L283" s="8"/>
+      <c r="L283" s="3"/>
     </row>
     <row r="284" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L284" s="8"/>
+      <c r="L284" s="3"/>
     </row>
     <row r="285" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L285" s="8"/>
+      <c r="L285" s="3"/>
     </row>
     <row r="286" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L286" s="8"/>
+      <c r="L286" s="3"/>
     </row>
     <row r="287" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L287" s="8"/>
+      <c r="L287" s="3"/>
     </row>
     <row r="288" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L288" s="8"/>
+      <c r="L288" s="3"/>
     </row>
     <row r="289" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L289" s="8"/>
+      <c r="L289" s="3"/>
     </row>
     <row r="290" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L290" s="8"/>
+      <c r="L290" s="3"/>
     </row>
     <row r="291" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L291" s="8"/>
+      <c r="L291" s="3"/>
     </row>
     <row r="292" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L292" s="8"/>
+      <c r="L292" s="3"/>
     </row>
     <row r="293" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L293" s="8"/>
+      <c r="L293" s="3"/>
     </row>
     <row r="294" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L294" s="8"/>
+      <c r="L294" s="3"/>
     </row>
     <row r="295" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L295" s="8"/>
+      <c r="L295" s="3"/>
     </row>
     <row r="296" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L296" s="8"/>
+      <c r="L296" s="3"/>
     </row>
     <row r="297" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L297" s="8"/>
+      <c r="L297" s="3"/>
     </row>
     <row r="298" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L298" s="8"/>
+      <c r="L298" s="3"/>
     </row>
     <row r="299" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L299" s="8"/>
+      <c r="L299" s="3"/>
     </row>
     <row r="300" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L300" s="8"/>
+      <c r="L300" s="3"/>
     </row>
     <row r="301" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L301" s="8"/>
+      <c r="L301" s="3"/>
     </row>
     <row r="302" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L302" s="8"/>
+      <c r="L302" s="3"/>
     </row>
     <row r="303" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L303" s="8"/>
+      <c r="L303" s="3"/>
     </row>
     <row r="304" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L304" s="8"/>
+      <c r="L304" s="3"/>
     </row>
     <row r="305" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L305" s="8"/>
+      <c r="L305" s="3"/>
     </row>
     <row r="306" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L306" s="8"/>
+      <c r="L306" s="3"/>
     </row>
     <row r="307" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L307" s="8"/>
+      <c r="L307" s="3"/>
     </row>
     <row r="308" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L308" s="8"/>
+      <c r="L308" s="3"/>
     </row>
     <row r="309" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L309" s="8"/>
+      <c r="L309" s="3"/>
     </row>
     <row r="310" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L310" s="8"/>
+      <c r="L310" s="3"/>
     </row>
     <row r="311" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L311" s="8"/>
+      <c r="L311" s="3"/>
     </row>
     <row r="312" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L312" s="8"/>
+      <c r="L312" s="3"/>
     </row>
     <row r="313" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L313" s="8"/>
+      <c r="L313" s="3"/>
     </row>
     <row r="314" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L314" s="8"/>
+      <c r="L314" s="3"/>
     </row>
     <row r="315" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L315" s="8"/>
+      <c r="L315" s="3"/>
     </row>
     <row r="316" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L316" s="8"/>
+      <c r="L316" s="3"/>
     </row>
     <row r="317" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L317" s="8"/>
+      <c r="L317" s="3"/>
     </row>
     <row r="318" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L318" s="8"/>
+      <c r="L318" s="3"/>
     </row>
     <row r="319" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L319" s="8"/>
+      <c r="L319" s="3"/>
     </row>
     <row r="320" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L320" s="8"/>
+      <c r="L320" s="3"/>
     </row>
     <row r="321" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L321" s="8"/>
+      <c r="L321" s="3"/>
     </row>
     <row r="322" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L322" s="8"/>
+      <c r="L322" s="3"/>
     </row>
     <row r="323" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L323" s="8"/>
+      <c r="L323" s="3"/>
     </row>
     <row r="324" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L324" s="8"/>
+      <c r="L324" s="3"/>
     </row>
     <row r="325" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L325" s="8"/>
+      <c r="L325" s="3"/>
     </row>
     <row r="326" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L326" s="8"/>
+      <c r="L326" s="3"/>
     </row>
     <row r="327" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L327" s="8"/>
+      <c r="L327" s="3"/>
     </row>
     <row r="328" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L328" s="8"/>
+      <c r="L328" s="3"/>
     </row>
     <row r="329" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L329" s="8"/>
+      <c r="L329" s="3"/>
     </row>
     <row r="330" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L330" s="8"/>
+      <c r="L330" s="3"/>
     </row>
     <row r="331" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L331" s="8"/>
+      <c r="L331" s="3"/>
     </row>
     <row r="332" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L332" s="8"/>
+      <c r="L332" s="3"/>
     </row>
     <row r="333" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L333" s="8"/>
+      <c r="L333" s="3"/>
     </row>
     <row r="334" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L334" s="8"/>
+      <c r="L334" s="3"/>
     </row>
     <row r="335" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L335" s="8"/>
+      <c r="L335" s="3"/>
     </row>
     <row r="336" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L336" s="8"/>
+      <c r="L336" s="3"/>
     </row>
     <row r="337" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L337" s="8"/>
+      <c r="L337" s="3"/>
     </row>
     <row r="338" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L338" s="8"/>
+      <c r="L338" s="3"/>
     </row>
     <row r="339" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L339" s="8"/>
+      <c r="L339" s="3"/>
     </row>
     <row r="340" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L340" s="8"/>
+      <c r="L340" s="3"/>
     </row>
     <row r="341" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L341" s="8"/>
+      <c r="L341" s="3"/>
     </row>
     <row r="342" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L342" s="8"/>
+      <c r="L342" s="3"/>
     </row>
     <row r="343" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L343" s="8"/>
+      <c r="L343" s="3"/>
     </row>
     <row r="344" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L344" s="8"/>
+      <c r="L344" s="3"/>
     </row>
     <row r="345" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L345" s="8"/>
+      <c r="L345" s="3"/>
     </row>
     <row r="346" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L346" s="8"/>
+      <c r="L346" s="3"/>
     </row>
     <row r="347" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L347" s="8"/>
+      <c r="L347" s="3"/>
     </row>
     <row r="348" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L348" s="8"/>
+      <c r="L348" s="3"/>
     </row>
     <row r="349" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L349" s="8"/>
+      <c r="L349" s="3"/>
     </row>
     <row r="350" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L350" s="8"/>
+      <c r="L350" s="3"/>
     </row>
     <row r="351" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L351" s="8"/>
+      <c r="L351" s="3"/>
     </row>
     <row r="352" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L352" s="8"/>
+      <c r="L352" s="3"/>
     </row>
     <row r="353" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L353" s="8"/>
+      <c r="L353" s="3"/>
     </row>
     <row r="354" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L354" s="8"/>
+      <c r="L354" s="3"/>
     </row>
     <row r="355" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L355" s="8"/>
+      <c r="L355" s="3"/>
     </row>
     <row r="356" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L356" s="8"/>
+      <c r="L356" s="3"/>
     </row>
     <row r="357" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L357" s="8"/>
+      <c r="L357" s="3"/>
     </row>
     <row r="358" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L358" s="8"/>
+      <c r="L358" s="3"/>
     </row>
     <row r="359" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L359" s="8"/>
+      <c r="L359" s="3"/>
     </row>
     <row r="360" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L360" s="8"/>
+      <c r="L360" s="3"/>
     </row>
     <row r="361" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L361" s="8"/>
+      <c r="L361" s="3"/>
     </row>
     <row r="362" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L362" s="8"/>
+      <c r="L362" s="3"/>
     </row>
     <row r="363" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L363" s="8"/>
+      <c r="L363" s="3"/>
     </row>
     <row r="364" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L364" s="8"/>
+      <c r="L364" s="3"/>
     </row>
     <row r="365" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L365" s="8"/>
+      <c r="L365" s="3"/>
     </row>
     <row r="366" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L366" s="8"/>
+      <c r="L366" s="3"/>
     </row>
     <row r="367" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L367" s="8"/>
+      <c r="L367" s="3"/>
     </row>
     <row r="368" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L368" s="8"/>
+      <c r="L368" s="3"/>
     </row>
     <row r="369" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L369" s="8"/>
+      <c r="L369" s="3"/>
     </row>
     <row r="370" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L370" s="8"/>
+      <c r="L370" s="3"/>
     </row>
     <row r="371" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L371" s="8"/>
+      <c r="L371" s="3"/>
     </row>
     <row r="372" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L372" s="8"/>
+      <c r="L372" s="3"/>
     </row>
     <row r="373" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L373" s="8"/>
+      <c r="L373" s="3"/>
     </row>
     <row r="374" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L374" s="8"/>
+      <c r="L374" s="3"/>
     </row>
     <row r="375" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L375" s="8"/>
+      <c r="L375" s="3"/>
     </row>
     <row r="376" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L376" s="8"/>
+      <c r="L376" s="3"/>
     </row>
     <row r="377" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L377" s="8"/>
+      <c r="L377" s="3"/>
     </row>
     <row r="378" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L378" s="8"/>
+      <c r="L378" s="3"/>
     </row>
     <row r="379" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L379" s="8"/>
+      <c r="L379" s="3"/>
     </row>
     <row r="380" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L380" s="8"/>
+      <c r="L380" s="3"/>
     </row>
     <row r="381" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L381" s="8"/>
+      <c r="L381" s="3"/>
     </row>
     <row r="382" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L382" s="8"/>
+      <c r="L382" s="3"/>
     </row>
     <row r="383" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L383" s="8"/>
+      <c r="L383" s="3"/>
     </row>
     <row r="384" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L384" s="8"/>
+      <c r="L384" s="3"/>
     </row>
     <row r="385" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L385" s="8"/>
+      <c r="L385" s="3"/>
     </row>
     <row r="386" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L386" s="8"/>
+      <c r="L386" s="3"/>
     </row>
     <row r="387" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L387" s="8"/>
+      <c r="L387" s="3"/>
     </row>
     <row r="388" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L388" s="8"/>
+      <c r="L388" s="3"/>
     </row>
     <row r="389" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L389" s="8"/>
+      <c r="L389" s="3"/>
     </row>
     <row r="390" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L390" s="8"/>
+      <c r="L390" s="3"/>
     </row>
     <row r="391" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L391" s="8"/>
+      <c r="L391" s="3"/>
     </row>
     <row r="392" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L392" s="8"/>
+      <c r="L392" s="3"/>
     </row>
     <row r="393" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L393" s="8"/>
+      <c r="L393" s="3"/>
     </row>
     <row r="394" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L394" s="8"/>
+      <c r="L394" s="3"/>
     </row>
     <row r="395" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L395" s="8"/>
+      <c r="L395" s="3"/>
     </row>
     <row r="396" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L396" s="8"/>
+      <c r="L396" s="3"/>
     </row>
     <row r="397" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L397" s="8"/>
+      <c r="L397" s="3"/>
     </row>
     <row r="398" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L398" s="8"/>
+      <c r="L398" s="3"/>
     </row>
     <row r="399" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L399" s="8"/>
+      <c r="L399" s="3"/>
     </row>
     <row r="400" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L400" s="8"/>
+      <c r="L400" s="3"/>
     </row>
     <row r="401" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L401" s="8"/>
+      <c r="L401" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4757,316 +5064,4656 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+  <dimension ref="A1:T401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H19"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C2" s="41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="44">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="52"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="52"/>
+      <c r="P1" s="57"/>
+    </row>
+    <row r="2" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="49"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="55"/>
+      <c r="N2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
         <v>2000</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46">
-        <v>3.0200000000000001E-2</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="44">
+      <c r="G3" s="11">
+        <v>100</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="14">
+        <v>23753.570109128901</v>
+      </c>
+      <c r="K3" s="11">
+        <f>J3/3600</f>
+        <v>6.5982139192024727</v>
+      </c>
+      <c r="L3" s="12">
+        <v>1.2987439410937301E-3</v>
+      </c>
+      <c r="M3" s="27"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
         <v>2000</v>
       </c>
-      <c r="C5" s="48">
-        <v>0.25371749999999998</v>
-      </c>
-      <c r="D5" s="50">
-        <v>3.1219044989073814E-2</v>
-      </c>
-      <c r="E5" s="49">
-        <v>1.9267628015677642E-2</v>
-      </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="51">
-        <f>(D5-D4)/(AVERAGE(D4:D5))</f>
-        <v>3.3183355073498663E-2</v>
-      </c>
-      <c r="H5" s="51">
-        <f>(D5-D4)/D4</f>
-        <v>3.3743211558735518E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="44">
-        <v>5000</v>
-      </c>
-      <c r="C6" s="48">
-        <v>0.62766055555555555</v>
-      </c>
-      <c r="D6" s="50">
-        <v>8.4485917713194789E-4</v>
-      </c>
-      <c r="E6" s="49">
-        <v>4.6608038923739314E-4</v>
-      </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="44">
-        <v>10000</v>
-      </c>
-      <c r="C7" s="48">
-        <v>1.0648361111111111</v>
-      </c>
-      <c r="D7" s="50">
-        <v>1.496013399019277E-4</v>
-      </c>
-      <c r="E7" s="49">
-        <v>7.0086486756693633E-5</v>
-      </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="41" t="s">
+      <c r="G4" s="11">
+        <v>100</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="14">
+        <v>23828.0125296115</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" ref="K4:K35" si="0">J4/3600</f>
+        <v>6.6188923693365282</v>
+      </c>
+      <c r="L4" s="12">
+        <v>1.5107019544862699E-3</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="13"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="53">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="53">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="44" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="11">
+        <v>100</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="14">
+        <v>24165.463087081898</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7126286353005273</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.102760328468172</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="48">
-        <v>4.2666666666666666</v>
-      </c>
-      <c r="D13" s="54">
-        <v>7.8129160408279955E-4</v>
-      </c>
-      <c r="E13" s="49">
-        <v>6.8766974675303508E-4</v>
-      </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="51">
-        <f>(D13-D11)/(AVERAGE(D11,D13))</f>
-        <v>1.1847479417214115</v>
-      </c>
-      <c r="H13" s="51">
-        <f>(D13-D11)/D11</f>
-        <v>2.9064580204139978</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="42"/>
-      <c r="C16" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="48">
-        <v>6.0704150062534445</v>
-      </c>
-      <c r="D17" s="54">
-        <v>8.5798222225815857E-4</v>
-      </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="48">
-        <v>6.3238294003539472</v>
-      </c>
-      <c r="D18" s="54">
-        <v>9.0717097911678316E-3</v>
-      </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="48">
-        <v>6.7190543635487447</v>
-      </c>
-      <c r="D19" s="54">
-        <v>3.9600004763096792E-3</v>
-      </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="11">
+        <v>100</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="14">
+        <v>24706.9419541358</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="0"/>
+        <v>6.8630394317043892</v>
+      </c>
+      <c r="L6" s="12">
+        <v>5.2068213048273903E-3</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="11">
+        <v>100</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="14">
+        <v>24978.965436935399</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9386015102598328</v>
+      </c>
+      <c r="L7" s="12">
+        <v>9.5269809410274597E-4</v>
+      </c>
+      <c r="M7" s="21"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="11">
+        <v>100</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="14">
+        <v>24991.2608664035</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9420169073343052</v>
+      </c>
+      <c r="L8" s="12">
+        <v>4.06375312037172E-2</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="11">
+        <v>100</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="14">
+        <v>23605.283489465699</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="0"/>
+        <v>6.5570231915182493</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1.6815348504178899E-3</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="13"/>
+      <c r="S9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="11">
+        <v>100</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="14">
+        <v>23799.9080395698</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="0"/>
+        <v>6.6110855665471666</v>
+      </c>
+      <c r="L10" s="12">
+        <v>1.14043278485604E-3</v>
+      </c>
+      <c r="M10" s="21"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="13"/>
+      <c r="S10" t="s">
+        <v>47</v>
+      </c>
+      <c r="T10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G11" s="11">
+        <v>100</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="14">
+        <v>24471.3324646949</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7975923513041394</v>
+      </c>
+      <c r="L11" s="12">
+        <v>1.15550709998405E-3</v>
+      </c>
+      <c r="M11" s="21"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G12" s="11">
+        <v>100</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="14">
+        <v>24483.031729459701</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="0"/>
+        <v>6.8008421470721387</v>
+      </c>
+      <c r="L12" s="12">
+        <v>1.3432897099063901E-3</v>
+      </c>
+      <c r="M12" s="21"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6">
+        <f>AVERAGE(J3:J12)</f>
+        <v>24278.376970648711</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7439936029579757</v>
+      </c>
+      <c r="L13" s="19">
+        <f>AVERAGE(L3:L12)</f>
+        <v>1.5768758941156369E-2</v>
+      </c>
+      <c r="M13" s="28"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="26"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G14" s="11">
+        <v>100</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="15">
+        <v>22773.121370792302</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="0"/>
+        <v>6.3258670474423058</v>
+      </c>
+      <c r="L14" s="16">
+        <v>5.5630744347886802E-4</v>
+      </c>
+      <c r="M14" s="21"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G15" s="11">
+        <v>100</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="15">
+        <v>23597.8497207164</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="0"/>
+        <v>6.5549582557545554</v>
+      </c>
+      <c r="L15" s="16">
+        <v>1.28099525866159E-3</v>
+      </c>
+      <c r="M15" s="21"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G16" s="11">
+        <v>100</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="15">
+        <v>23657.714048862399</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="0"/>
+        <v>6.5715872357951106</v>
+      </c>
+      <c r="L16" s="16">
+        <v>3.6597831996179101E-3</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G17" s="11">
+        <v>100</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="15">
+        <v>23661.702118635101</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="0"/>
+        <v>6.5726950329541944</v>
+      </c>
+      <c r="L17" s="16">
+        <v>3.0893614363891602E-3</v>
+      </c>
+      <c r="M17" s="21"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G18" s="11">
+        <v>100</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="15">
+        <v>23728.0434205532</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="0"/>
+        <v>6.5911231723758892</v>
+      </c>
+      <c r="L18" s="16">
+        <v>8.3900209213864105E-4</v>
+      </c>
+      <c r="M18" s="21"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G19" s="11">
+        <v>100</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="15">
+        <v>23787.112545013399</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" si="0"/>
+        <v>6.6075312625037217</v>
+      </c>
+      <c r="L19" s="16">
+        <v>1.5284281376163899E-3</v>
+      </c>
+      <c r="M19" s="21"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G20" s="11">
+        <v>100</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="15">
+        <v>24025.477123975699</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="0"/>
+        <v>6.6737436455488055</v>
+      </c>
+      <c r="L20" s="16">
+        <v>1.5555103643660501E-3</v>
+      </c>
+      <c r="M20" s="21"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G21" s="11">
+        <v>100</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="15">
+        <v>24083.7893083095</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="0"/>
+        <v>6.6899414745304169</v>
+      </c>
+      <c r="L21" s="16">
+        <v>2.4673721299362798E-3</v>
+      </c>
+      <c r="M21" s="21"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="13"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G22" s="11">
+        <v>100</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="15">
+        <v>24954.416677474899</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9317824104096939</v>
+      </c>
+      <c r="L22" s="16">
+        <v>1.2696109492374801E-3</v>
+      </c>
+      <c r="M22" s="21"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G23" s="11">
+        <v>100</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="15">
+        <v>24375.886614799401</v>
+      </c>
+      <c r="K23" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7710796152220558</v>
+      </c>
+      <c r="L23" s="16">
+        <v>1.2777182717952501E-3</v>
+      </c>
+      <c r="M23" s="21"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="13"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6">
+        <f>AVERAGE(J14:J23)</f>
+        <v>23864.511294913231</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" si="0"/>
+        <v>6.6290309152536748</v>
+      </c>
+      <c r="L24" s="7">
+        <f>AVERAGE(L14:L23)</f>
+        <v>1.752408928323762E-3</v>
+      </c>
+      <c r="M24" s="28"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="26"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="23"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="13"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="23"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="13"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="23"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="13"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="23"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="13"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="23"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="13"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="23"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="13"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="23"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="13"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="23"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="13"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="23"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="13"/>
+    </row>
+    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="25"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="13"/>
+    </row>
+    <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6" t="e">
+        <f>AVERAGE(J25:J34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="7" t="e">
+        <f>AVERAGE(L25:L34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="28"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="26"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L102" s="3"/>
+    </row>
+    <row r="103" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L103" s="3"/>
+    </row>
+    <row r="104" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L104" s="3"/>
+    </row>
+    <row r="105" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L105" s="3"/>
+    </row>
+    <row r="106" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L106" s="3"/>
+    </row>
+    <row r="107" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L107" s="3"/>
+    </row>
+    <row r="108" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L108" s="3"/>
+    </row>
+    <row r="109" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L109" s="3"/>
+    </row>
+    <row r="110" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L110" s="3"/>
+    </row>
+    <row r="111" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L111" s="3"/>
+    </row>
+    <row r="112" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L112" s="3"/>
+    </row>
+    <row r="113" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L113" s="3"/>
+    </row>
+    <row r="114" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L114" s="3"/>
+    </row>
+    <row r="115" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L115" s="3"/>
+    </row>
+    <row r="116" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L116" s="3"/>
+    </row>
+    <row r="117" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L117" s="3"/>
+    </row>
+    <row r="118" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L118" s="3"/>
+    </row>
+    <row r="119" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L119" s="3"/>
+    </row>
+    <row r="120" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L120" s="3"/>
+    </row>
+    <row r="121" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L121" s="3"/>
+    </row>
+    <row r="122" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L122" s="3"/>
+    </row>
+    <row r="123" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L123" s="3"/>
+    </row>
+    <row r="124" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L124" s="3"/>
+    </row>
+    <row r="125" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L125" s="3"/>
+    </row>
+    <row r="126" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L126" s="3"/>
+    </row>
+    <row r="127" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L127" s="3"/>
+    </row>
+    <row r="128" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L128" s="3"/>
+    </row>
+    <row r="129" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L129" s="3"/>
+    </row>
+    <row r="130" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L130" s="3"/>
+    </row>
+    <row r="131" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L131" s="3"/>
+    </row>
+    <row r="132" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L132" s="3"/>
+    </row>
+    <row r="133" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L133" s="3"/>
+    </row>
+    <row r="134" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L134" s="3"/>
+    </row>
+    <row r="135" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L135" s="3"/>
+    </row>
+    <row r="136" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L136" s="3"/>
+    </row>
+    <row r="137" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L137" s="3"/>
+    </row>
+    <row r="138" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L138" s="3"/>
+    </row>
+    <row r="139" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L139" s="3"/>
+    </row>
+    <row r="140" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L140" s="3"/>
+    </row>
+    <row r="141" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L141" s="3"/>
+    </row>
+    <row r="142" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L142" s="3"/>
+    </row>
+    <row r="143" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L143" s="3"/>
+    </row>
+    <row r="144" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L144" s="3"/>
+    </row>
+    <row r="145" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L145" s="3"/>
+    </row>
+    <row r="146" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L146" s="3"/>
+    </row>
+    <row r="147" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L147" s="3"/>
+    </row>
+    <row r="148" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L148" s="3"/>
+    </row>
+    <row r="149" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L149" s="3"/>
+    </row>
+    <row r="150" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L150" s="3"/>
+    </row>
+    <row r="151" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L151" s="3"/>
+    </row>
+    <row r="152" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L152" s="3"/>
+    </row>
+    <row r="153" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L153" s="3"/>
+    </row>
+    <row r="154" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L154" s="3"/>
+    </row>
+    <row r="155" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L155" s="3"/>
+    </row>
+    <row r="156" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L156" s="3"/>
+    </row>
+    <row r="157" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L157" s="3"/>
+    </row>
+    <row r="158" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L158" s="3"/>
+    </row>
+    <row r="159" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L159" s="3"/>
+    </row>
+    <row r="160" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L160" s="3"/>
+    </row>
+    <row r="161" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L161" s="3"/>
+    </row>
+    <row r="162" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L162" s="3"/>
+    </row>
+    <row r="163" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L163" s="3"/>
+    </row>
+    <row r="164" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L164" s="3"/>
+    </row>
+    <row r="165" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L165" s="3"/>
+    </row>
+    <row r="166" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L166" s="3"/>
+    </row>
+    <row r="167" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L167" s="3"/>
+    </row>
+    <row r="168" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L168" s="3"/>
+    </row>
+    <row r="169" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L169" s="3"/>
+    </row>
+    <row r="170" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L170" s="3"/>
+    </row>
+    <row r="171" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L171" s="3"/>
+    </row>
+    <row r="172" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L172" s="3"/>
+    </row>
+    <row r="173" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L173" s="3"/>
+    </row>
+    <row r="174" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L174" s="3"/>
+    </row>
+    <row r="175" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L175" s="3"/>
+    </row>
+    <row r="176" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L176" s="3"/>
+    </row>
+    <row r="177" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L177" s="3"/>
+    </row>
+    <row r="178" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L178" s="3"/>
+    </row>
+    <row r="179" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L179" s="3"/>
+    </row>
+    <row r="180" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L180" s="3"/>
+    </row>
+    <row r="181" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L181" s="3"/>
+    </row>
+    <row r="182" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L182" s="3"/>
+    </row>
+    <row r="183" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L183" s="3"/>
+    </row>
+    <row r="184" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L184" s="3"/>
+    </row>
+    <row r="185" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L185" s="3"/>
+    </row>
+    <row r="186" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L186" s="3"/>
+    </row>
+    <row r="187" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L187" s="3"/>
+    </row>
+    <row r="188" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L188" s="3"/>
+    </row>
+    <row r="189" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L189" s="3"/>
+    </row>
+    <row r="190" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L190" s="3"/>
+    </row>
+    <row r="191" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L191" s="3"/>
+    </row>
+    <row r="192" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L192" s="3"/>
+    </row>
+    <row r="193" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L193" s="3"/>
+    </row>
+    <row r="194" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L194" s="3"/>
+    </row>
+    <row r="195" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L195" s="3"/>
+    </row>
+    <row r="196" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L196" s="3"/>
+    </row>
+    <row r="197" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L197" s="3"/>
+    </row>
+    <row r="198" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L198" s="3"/>
+    </row>
+    <row r="199" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L199" s="3"/>
+    </row>
+    <row r="200" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L200" s="3"/>
+    </row>
+    <row r="201" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L201" s="3"/>
+    </row>
+    <row r="202" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L202" s="3"/>
+    </row>
+    <row r="203" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L203" s="3"/>
+    </row>
+    <row r="204" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L204" s="3"/>
+    </row>
+    <row r="205" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L205" s="3"/>
+    </row>
+    <row r="206" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L206" s="3"/>
+    </row>
+    <row r="207" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L207" s="3"/>
+    </row>
+    <row r="208" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L208" s="3"/>
+    </row>
+    <row r="209" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L209" s="3"/>
+    </row>
+    <row r="210" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L210" s="3"/>
+    </row>
+    <row r="211" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L211" s="3"/>
+    </row>
+    <row r="212" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L212" s="3"/>
+    </row>
+    <row r="213" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L213" s="3"/>
+    </row>
+    <row r="214" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L214" s="3"/>
+    </row>
+    <row r="215" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L215" s="3"/>
+    </row>
+    <row r="216" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L216" s="3"/>
+    </row>
+    <row r="217" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L217" s="3"/>
+    </row>
+    <row r="218" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L218" s="3"/>
+    </row>
+    <row r="219" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L219" s="3"/>
+    </row>
+    <row r="220" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L220" s="3"/>
+    </row>
+    <row r="221" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L221" s="3"/>
+    </row>
+    <row r="222" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L222" s="3"/>
+    </row>
+    <row r="223" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L223" s="3"/>
+    </row>
+    <row r="224" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L224" s="3"/>
+    </row>
+    <row r="225" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L225" s="3"/>
+    </row>
+    <row r="226" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L226" s="3"/>
+    </row>
+    <row r="227" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L227" s="3"/>
+    </row>
+    <row r="228" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L228" s="3"/>
+    </row>
+    <row r="229" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L229" s="3"/>
+    </row>
+    <row r="230" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L230" s="3"/>
+    </row>
+    <row r="231" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L231" s="3"/>
+    </row>
+    <row r="232" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L232" s="3"/>
+    </row>
+    <row r="233" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L233" s="3"/>
+    </row>
+    <row r="234" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L234" s="3"/>
+    </row>
+    <row r="235" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L235" s="3"/>
+    </row>
+    <row r="236" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L236" s="3"/>
+    </row>
+    <row r="237" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L237" s="3"/>
+    </row>
+    <row r="238" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L238" s="3"/>
+    </row>
+    <row r="239" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L239" s="3"/>
+    </row>
+    <row r="240" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L240" s="3"/>
+    </row>
+    <row r="241" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L241" s="3"/>
+    </row>
+    <row r="242" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L242" s="3"/>
+    </row>
+    <row r="243" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L243" s="3"/>
+    </row>
+    <row r="244" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L244" s="3"/>
+    </row>
+    <row r="245" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L245" s="3"/>
+    </row>
+    <row r="246" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L246" s="3"/>
+    </row>
+    <row r="247" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L247" s="3"/>
+    </row>
+    <row r="248" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L248" s="3"/>
+    </row>
+    <row r="249" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L249" s="3"/>
+    </row>
+    <row r="250" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L250" s="3"/>
+    </row>
+    <row r="251" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L251" s="3"/>
+    </row>
+    <row r="252" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L252" s="3"/>
+    </row>
+    <row r="253" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L253" s="3"/>
+    </row>
+    <row r="254" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L254" s="3"/>
+    </row>
+    <row r="255" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L255" s="3"/>
+    </row>
+    <row r="256" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L256" s="3"/>
+    </row>
+    <row r="257" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L257" s="3"/>
+    </row>
+    <row r="258" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L258" s="3"/>
+    </row>
+    <row r="259" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L259" s="3"/>
+    </row>
+    <row r="260" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L260" s="3"/>
+    </row>
+    <row r="261" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L261" s="3"/>
+    </row>
+    <row r="262" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L262" s="3"/>
+    </row>
+    <row r="263" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L263" s="3"/>
+    </row>
+    <row r="264" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L264" s="3"/>
+    </row>
+    <row r="265" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L265" s="3"/>
+    </row>
+    <row r="266" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L266" s="3"/>
+    </row>
+    <row r="267" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L267" s="3"/>
+    </row>
+    <row r="268" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L268" s="3"/>
+    </row>
+    <row r="269" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L269" s="3"/>
+    </row>
+    <row r="270" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L270" s="3"/>
+    </row>
+    <row r="271" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L271" s="3"/>
+    </row>
+    <row r="272" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L272" s="3"/>
+    </row>
+    <row r="273" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L273" s="3"/>
+    </row>
+    <row r="274" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L274" s="3"/>
+    </row>
+    <row r="275" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L275" s="3"/>
+    </row>
+    <row r="276" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L276" s="3"/>
+    </row>
+    <row r="277" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L277" s="3"/>
+    </row>
+    <row r="278" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L278" s="3"/>
+    </row>
+    <row r="279" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L279" s="3"/>
+    </row>
+    <row r="280" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L280" s="3"/>
+    </row>
+    <row r="281" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L281" s="3"/>
+    </row>
+    <row r="282" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L282" s="3"/>
+    </row>
+    <row r="283" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L283" s="3"/>
+    </row>
+    <row r="284" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L284" s="3"/>
+    </row>
+    <row r="285" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L285" s="3"/>
+    </row>
+    <row r="286" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L286" s="3"/>
+    </row>
+    <row r="287" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L287" s="3"/>
+    </row>
+    <row r="288" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L288" s="3"/>
+    </row>
+    <row r="289" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L289" s="3"/>
+    </row>
+    <row r="290" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L290" s="3"/>
+    </row>
+    <row r="291" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L291" s="3"/>
+    </row>
+    <row r="292" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L292" s="3"/>
+    </row>
+    <row r="293" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L293" s="3"/>
+    </row>
+    <row r="294" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L294" s="3"/>
+    </row>
+    <row r="295" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L295" s="3"/>
+    </row>
+    <row r="296" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L296" s="3"/>
+    </row>
+    <row r="297" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L297" s="3"/>
+    </row>
+    <row r="298" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L298" s="3"/>
+    </row>
+    <row r="299" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L299" s="3"/>
+    </row>
+    <row r="300" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L300" s="3"/>
+    </row>
+    <row r="301" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L301" s="3"/>
+    </row>
+    <row r="302" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L302" s="3"/>
+    </row>
+    <row r="303" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L303" s="3"/>
+    </row>
+    <row r="304" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L304" s="3"/>
+    </row>
+    <row r="305" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L305" s="3"/>
+    </row>
+    <row r="306" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L306" s="3"/>
+    </row>
+    <row r="307" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L307" s="3"/>
+    </row>
+    <row r="308" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L308" s="3"/>
+    </row>
+    <row r="309" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L309" s="3"/>
+    </row>
+    <row r="310" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L310" s="3"/>
+    </row>
+    <row r="311" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L311" s="3"/>
+    </row>
+    <row r="312" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L312" s="3"/>
+    </row>
+    <row r="313" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L313" s="3"/>
+    </row>
+    <row r="314" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L314" s="3"/>
+    </row>
+    <row r="315" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L315" s="3"/>
+    </row>
+    <row r="316" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L316" s="3"/>
+    </row>
+    <row r="317" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L317" s="3"/>
+    </row>
+    <row r="318" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L318" s="3"/>
+    </row>
+    <row r="319" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L319" s="3"/>
+    </row>
+    <row r="320" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L320" s="3"/>
+    </row>
+    <row r="321" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L321" s="3"/>
+    </row>
+    <row r="322" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L322" s="3"/>
+    </row>
+    <row r="323" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L323" s="3"/>
+    </row>
+    <row r="324" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L324" s="3"/>
+    </row>
+    <row r="325" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L325" s="3"/>
+    </row>
+    <row r="326" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L326" s="3"/>
+    </row>
+    <row r="327" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L327" s="3"/>
+    </row>
+    <row r="328" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L328" s="3"/>
+    </row>
+    <row r="329" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L329" s="3"/>
+    </row>
+    <row r="330" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L330" s="3"/>
+    </row>
+    <row r="331" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L331" s="3"/>
+    </row>
+    <row r="332" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L332" s="3"/>
+    </row>
+    <row r="333" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L333" s="3"/>
+    </row>
+    <row r="334" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L334" s="3"/>
+    </row>
+    <row r="335" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L335" s="3"/>
+    </row>
+    <row r="336" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L336" s="3"/>
+    </row>
+    <row r="337" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L337" s="3"/>
+    </row>
+    <row r="338" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L338" s="3"/>
+    </row>
+    <row r="339" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L339" s="3"/>
+    </row>
+    <row r="340" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L340" s="3"/>
+    </row>
+    <row r="341" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L341" s="3"/>
+    </row>
+    <row r="342" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L342" s="3"/>
+    </row>
+    <row r="343" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L343" s="3"/>
+    </row>
+    <row r="344" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L344" s="3"/>
+    </row>
+    <row r="345" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L345" s="3"/>
+    </row>
+    <row r="346" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L346" s="3"/>
+    </row>
+    <row r="347" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L347" s="3"/>
+    </row>
+    <row r="348" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L348" s="3"/>
+    </row>
+    <row r="349" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L349" s="3"/>
+    </row>
+    <row r="350" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L350" s="3"/>
+    </row>
+    <row r="351" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L351" s="3"/>
+    </row>
+    <row r="352" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L352" s="3"/>
+    </row>
+    <row r="353" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L353" s="3"/>
+    </row>
+    <row r="354" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L354" s="3"/>
+    </row>
+    <row r="355" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L355" s="3"/>
+    </row>
+    <row r="356" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L356" s="3"/>
+    </row>
+    <row r="357" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L357" s="3"/>
+    </row>
+    <row r="358" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L358" s="3"/>
+    </row>
+    <row r="359" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L359" s="3"/>
+    </row>
+    <row r="360" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L360" s="3"/>
+    </row>
+    <row r="361" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L361" s="3"/>
+    </row>
+    <row r="362" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L362" s="3"/>
+    </row>
+    <row r="363" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L363" s="3"/>
+    </row>
+    <row r="364" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L364" s="3"/>
+    </row>
+    <row r="365" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L365" s="3"/>
+    </row>
+    <row r="366" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L366" s="3"/>
+    </row>
+    <row r="367" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L367" s="3"/>
+    </row>
+    <row r="368" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L368" s="3"/>
+    </row>
+    <row r="369" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L369" s="3"/>
+    </row>
+    <row r="370" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L370" s="3"/>
+    </row>
+    <row r="371" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L371" s="3"/>
+    </row>
+    <row r="372" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L372" s="3"/>
+    </row>
+    <row r="373" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L373" s="3"/>
+    </row>
+    <row r="374" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L374" s="3"/>
+    </row>
+    <row r="375" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L375" s="3"/>
+    </row>
+    <row r="376" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L376" s="3"/>
+    </row>
+    <row r="377" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L377" s="3"/>
+    </row>
+    <row r="378" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L378" s="3"/>
+    </row>
+    <row r="379" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L379" s="3"/>
+    </row>
+    <row r="380" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L380" s="3"/>
+    </row>
+    <row r="381" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L381" s="3"/>
+    </row>
+    <row r="382" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L382" s="3"/>
+    </row>
+    <row r="383" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L383" s="3"/>
+    </row>
+    <row r="384" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L384" s="3"/>
+    </row>
+    <row r="385" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L385" s="3"/>
+    </row>
+    <row r="386" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L386" s="3"/>
+    </row>
+    <row r="387" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L387" s="3"/>
+    </row>
+    <row r="388" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L388" s="3"/>
+    </row>
+    <row r="389" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L389" s="3"/>
+    </row>
+    <row r="390" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L390" s="3"/>
+    </row>
+    <row r="391" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L391" s="3"/>
+    </row>
+    <row r="392" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L392" s="3"/>
+    </row>
+    <row r="393" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L393" s="3"/>
+    </row>
+    <row r="394" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L394" s="3"/>
+    </row>
+    <row r="395" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L395" s="3"/>
+    </row>
+    <row r="396" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L396" s="3"/>
+    </row>
+    <row r="397" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L397" s="3"/>
+    </row>
+    <row r="398" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L398" s="3"/>
+    </row>
+    <row r="399" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L399" s="3"/>
+    </row>
+    <row r="400" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L400" s="3"/>
+    </row>
+    <row r="401" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L401" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:M2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P401"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="52"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="52"/>
+      <c r="P1" s="57"/>
+    </row>
+    <row r="2" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="49"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="55"/>
+      <c r="N2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="29">
+        <v>100</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="14">
+        <v>22489.369445562301</v>
+      </c>
+      <c r="K3" s="46">
+        <f>J3/3600</f>
+        <v>6.2470470682117503</v>
+      </c>
+      <c r="L3" s="12">
+        <v>4.9395977032801305E-4</v>
+      </c>
+      <c r="M3" s="27"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="29">
+        <v>100</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="14">
+        <v>23171.068012475898</v>
+      </c>
+      <c r="K4" s="46">
+        <f>J4/3600</f>
+        <v>6.4364077812433047</v>
+      </c>
+      <c r="L4" s="12">
+        <v>1.2772828715492601E-3</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="13"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="29">
+        <v>100</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="14">
+        <v>23324.9197568893</v>
+      </c>
+      <c r="K5" s="46">
+        <f t="shared" ref="K5:K12" si="0">J5/3600</f>
+        <v>6.4791443769136947</v>
+      </c>
+      <c r="L5" s="12">
+        <v>2.4320665644777601E-4</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="29">
+        <v>100</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="14">
+        <v>23416.6198935508</v>
+      </c>
+      <c r="K6" s="46">
+        <f t="shared" si="0"/>
+        <v>6.5046166370974445</v>
+      </c>
+      <c r="L6" s="12">
+        <v>5.4024426497058004E-4</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="29">
+        <v>100</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="14">
+        <v>23459.262625217401</v>
+      </c>
+      <c r="K7" s="46">
+        <f t="shared" si="0"/>
+        <v>6.5164618403381667</v>
+      </c>
+      <c r="L7" s="12">
+        <v>4.1915965414509801E-4</v>
+      </c>
+      <c r="M7" s="21"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="29">
+        <v>100</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="14">
+        <v>23486.423342943101</v>
+      </c>
+      <c r="K8" s="46">
+        <f t="shared" si="0"/>
+        <v>6.5240064841508616</v>
+      </c>
+      <c r="L8" s="12">
+        <v>2.66980676235363E-4</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="29">
+        <v>100</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="14">
+        <v>24337.748955011299</v>
+      </c>
+      <c r="K9" s="46">
+        <f t="shared" si="0"/>
+        <v>6.7604858208364718</v>
+      </c>
+      <c r="L9" s="12">
+        <v>4.3243798922791901E-4</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="29">
+        <v>100</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="14">
+        <v>24837.7631993293</v>
+      </c>
+      <c r="K10" s="46">
+        <f t="shared" si="0"/>
+        <v>6.8993786664803611</v>
+      </c>
+      <c r="L10" s="12">
+        <v>2.7551204992486199E-4</v>
+      </c>
+      <c r="M10" s="21"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G11" s="29">
+        <v>100</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="14">
+        <v>24850.7257843017</v>
+      </c>
+      <c r="K11" s="46">
+        <f t="shared" si="0"/>
+        <v>6.9029793845282503</v>
+      </c>
+      <c r="L11" s="12">
+        <v>6.9388915027352599E-4</v>
+      </c>
+      <c r="M11" s="21"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G12" s="29">
+        <v>100</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="14">
+        <v>24851.602803230198</v>
+      </c>
+      <c r="K12" s="46">
+        <f t="shared" si="0"/>
+        <v>6.9032230008972775</v>
+      </c>
+      <c r="L12" s="12">
+        <v>2.7984019162489402E-4</v>
+      </c>
+      <c r="M12" s="21"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6">
+        <f>AVERAGE(J3:J12)</f>
+        <v>23822.550381851128</v>
+      </c>
+      <c r="K13" s="47">
+        <f t="shared" ref="K13:K35" si="1">J13/3600</f>
+        <v>6.6173751060697574</v>
+      </c>
+      <c r="L13" s="19">
+        <f>AVERAGE(L3:L12)</f>
+        <v>4.9225132747272914E-4</v>
+      </c>
+      <c r="M13" s="28"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="26"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="29">
+        <v>0</v>
+      </c>
+      <c r="E14" s="29">
+        <v>2</v>
+      </c>
+      <c r="F14" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G14" s="29">
+        <v>100</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="15">
+        <v>16599.4096457958</v>
+      </c>
+      <c r="K14" s="46">
+        <f>J14/3600</f>
+        <v>4.6109471238321671</v>
+      </c>
+      <c r="L14" s="16">
+        <v>6.89693299762849E-4</v>
+      </c>
+      <c r="M14" s="21"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="29">
+        <v>0</v>
+      </c>
+      <c r="E15" s="29">
+        <v>2</v>
+      </c>
+      <c r="F15" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G15" s="29">
+        <v>100</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="15">
+        <v>16643.734261751099</v>
+      </c>
+      <c r="K15" s="46">
+        <f>J15/3600</f>
+        <v>4.623259517153083</v>
+      </c>
+      <c r="L15" s="16">
+        <v>1.2979399344863001E-3</v>
+      </c>
+      <c r="M15" s="21"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29">
+        <v>2</v>
+      </c>
+      <c r="F16" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G16" s="29">
+        <v>100</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="15">
+        <v>16654.594912767399</v>
+      </c>
+      <c r="K16" s="46">
+        <f t="shared" ref="K16:K23" si="2">J16/3600</f>
+        <v>4.6262763646576106</v>
+      </c>
+      <c r="L16" s="16">
+        <v>3.3478354644396599E-4</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="29">
+        <v>0</v>
+      </c>
+      <c r="E17" s="29">
+        <v>2</v>
+      </c>
+      <c r="F17" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G17" s="29">
+        <v>100</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="15">
+        <v>16785.1739709377</v>
+      </c>
+      <c r="K17" s="46">
+        <f t="shared" si="2"/>
+        <v>4.662548325260472</v>
+      </c>
+      <c r="L17" s="16">
+        <v>8.4706348662493501E-4</v>
+      </c>
+      <c r="M17" s="21"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="29">
+        <v>0</v>
+      </c>
+      <c r="E18" s="29">
+        <v>2</v>
+      </c>
+      <c r="F18" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G18" s="29">
+        <v>100</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="15">
+        <v>16820.6933312416</v>
+      </c>
+      <c r="K18" s="46">
+        <f t="shared" si="2"/>
+        <v>4.672414814233778</v>
+      </c>
+      <c r="L18" s="16">
+        <v>3.9697882111725902E-4</v>
+      </c>
+      <c r="M18" s="21"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="29">
+        <v>0</v>
+      </c>
+      <c r="E19" s="29">
+        <v>2</v>
+      </c>
+      <c r="F19" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G19" s="29">
+        <v>100</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="15">
+        <v>18032.793603181799</v>
+      </c>
+      <c r="K19" s="46">
+        <f t="shared" si="2"/>
+        <v>5.0091093342171664</v>
+      </c>
+      <c r="L19" s="16">
+        <v>3.6532079335621002E-4</v>
+      </c>
+      <c r="M19" s="21"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="29">
+        <v>0</v>
+      </c>
+      <c r="E20" s="29">
+        <v>2</v>
+      </c>
+      <c r="F20" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G20" s="29">
+        <v>100</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="15">
+        <v>18140.452992439201</v>
+      </c>
+      <c r="K20" s="46">
+        <f t="shared" si="2"/>
+        <v>5.0390147201220001</v>
+      </c>
+      <c r="L20" s="16">
+        <v>5.8333020159008299E-2</v>
+      </c>
+      <c r="M20" s="21"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="29">
+        <v>0</v>
+      </c>
+      <c r="E21" s="29">
+        <v>2</v>
+      </c>
+      <c r="F21" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G21" s="29">
+        <v>100</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="15">
+        <v>18160.915207385999</v>
+      </c>
+      <c r="K21" s="46">
+        <f t="shared" si="2"/>
+        <v>5.0446986687183326</v>
+      </c>
+      <c r="L21" s="16">
+        <v>4.20004316102003E-4</v>
+      </c>
+      <c r="M21" s="21"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="13"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="29">
+        <v>0</v>
+      </c>
+      <c r="E22" s="29">
+        <v>2</v>
+      </c>
+      <c r="F22" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G22" s="29">
+        <v>100</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="15">
+        <v>18167.326075076999</v>
+      </c>
+      <c r="K22" s="46">
+        <f t="shared" si="2"/>
+        <v>5.046479465299166</v>
+      </c>
+      <c r="L22" s="16">
+        <v>3.9822433134341497E-4</v>
+      </c>
+      <c r="M22" s="21"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="29">
+        <v>0</v>
+      </c>
+      <c r="E23" s="29">
+        <v>2</v>
+      </c>
+      <c r="F23" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G23" s="29">
+        <v>100</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="15">
+        <v>18541.019046306599</v>
+      </c>
+      <c r="K23" s="46">
+        <f t="shared" si="2"/>
+        <v>5.1502830684185001</v>
+      </c>
+      <c r="L23" s="16">
+        <v>1.1248825326562501E-3</v>
+      </c>
+      <c r="M23" s="21"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="13"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6">
+        <f>AVERAGE(J14:J23)</f>
+        <v>17454.61130468842</v>
+      </c>
+      <c r="K24" s="47">
+        <f t="shared" si="1"/>
+        <v>4.8485031401912275</v>
+      </c>
+      <c r="L24" s="7">
+        <f>AVERAGE(L14:L23)</f>
+        <v>6.4207911220901482E-3</v>
+      </c>
+      <c r="M24" s="28"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="26"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="46">
+        <f>J25/3600</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="23"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="13"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="46">
+        <f>J26/3600</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="23"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="13"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="46">
+        <f t="shared" ref="K27:K34" si="3">J27/3600</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="23"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="13"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="23"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="13"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="23"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="13"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="23"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="13"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="23"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="13"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="23"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="13"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="23"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="13"/>
+    </row>
+    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="25"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="13"/>
+    </row>
+    <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6" t="e">
+        <f>AVERAGE(J25:J34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="47" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="7" t="e">
+        <f>AVERAGE(L25:L34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="28"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="26"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L102" s="3"/>
+    </row>
+    <row r="103" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L103" s="3"/>
+    </row>
+    <row r="104" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L104" s="3"/>
+    </row>
+    <row r="105" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L105" s="3"/>
+    </row>
+    <row r="106" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L106" s="3"/>
+    </row>
+    <row r="107" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L107" s="3"/>
+    </row>
+    <row r="108" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L108" s="3"/>
+    </row>
+    <row r="109" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L109" s="3"/>
+    </row>
+    <row r="110" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L110" s="3"/>
+    </row>
+    <row r="111" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L111" s="3"/>
+    </row>
+    <row r="112" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L112" s="3"/>
+    </row>
+    <row r="113" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L113" s="3"/>
+    </row>
+    <row r="114" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L114" s="3"/>
+    </row>
+    <row r="115" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L115" s="3"/>
+    </row>
+    <row r="116" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L116" s="3"/>
+    </row>
+    <row r="117" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L117" s="3"/>
+    </row>
+    <row r="118" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L118" s="3"/>
+    </row>
+    <row r="119" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L119" s="3"/>
+    </row>
+    <row r="120" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L120" s="3"/>
+    </row>
+    <row r="121" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L121" s="3"/>
+    </row>
+    <row r="122" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L122" s="3"/>
+    </row>
+    <row r="123" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L123" s="3"/>
+    </row>
+    <row r="124" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L124" s="3"/>
+    </row>
+    <row r="125" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L125" s="3"/>
+    </row>
+    <row r="126" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L126" s="3"/>
+    </row>
+    <row r="127" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L127" s="3"/>
+    </row>
+    <row r="128" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L128" s="3"/>
+    </row>
+    <row r="129" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L129" s="3"/>
+    </row>
+    <row r="130" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L130" s="3"/>
+    </row>
+    <row r="131" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L131" s="3"/>
+    </row>
+    <row r="132" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L132" s="3"/>
+    </row>
+    <row r="133" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L133" s="3"/>
+    </row>
+    <row r="134" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L134" s="3"/>
+    </row>
+    <row r="135" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L135" s="3"/>
+    </row>
+    <row r="136" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L136" s="3"/>
+    </row>
+    <row r="137" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L137" s="3"/>
+    </row>
+    <row r="138" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L138" s="3"/>
+    </row>
+    <row r="139" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L139" s="3"/>
+    </row>
+    <row r="140" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L140" s="3"/>
+    </row>
+    <row r="141" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L141" s="3"/>
+    </row>
+    <row r="142" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L142" s="3"/>
+    </row>
+    <row r="143" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L143" s="3"/>
+    </row>
+    <row r="144" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L144" s="3"/>
+    </row>
+    <row r="145" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L145" s="3"/>
+    </row>
+    <row r="146" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L146" s="3"/>
+    </row>
+    <row r="147" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L147" s="3"/>
+    </row>
+    <row r="148" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L148" s="3"/>
+    </row>
+    <row r="149" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L149" s="3"/>
+    </row>
+    <row r="150" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L150" s="3"/>
+    </row>
+    <row r="151" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L151" s="3"/>
+    </row>
+    <row r="152" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L152" s="3"/>
+    </row>
+    <row r="153" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L153" s="3"/>
+    </row>
+    <row r="154" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L154" s="3"/>
+    </row>
+    <row r="155" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L155" s="3"/>
+    </row>
+    <row r="156" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L156" s="3"/>
+    </row>
+    <row r="157" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L157" s="3"/>
+    </row>
+    <row r="158" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L158" s="3"/>
+    </row>
+    <row r="159" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L159" s="3"/>
+    </row>
+    <row r="160" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L160" s="3"/>
+    </row>
+    <row r="161" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L161" s="3"/>
+    </row>
+    <row r="162" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L162" s="3"/>
+    </row>
+    <row r="163" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L163" s="3"/>
+    </row>
+    <row r="164" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L164" s="3"/>
+    </row>
+    <row r="165" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L165" s="3"/>
+    </row>
+    <row r="166" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L166" s="3"/>
+    </row>
+    <row r="167" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L167" s="3"/>
+    </row>
+    <row r="168" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L168" s="3"/>
+    </row>
+    <row r="169" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L169" s="3"/>
+    </row>
+    <row r="170" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L170" s="3"/>
+    </row>
+    <row r="171" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L171" s="3"/>
+    </row>
+    <row r="172" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L172" s="3"/>
+    </row>
+    <row r="173" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L173" s="3"/>
+    </row>
+    <row r="174" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L174" s="3"/>
+    </row>
+    <row r="175" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L175" s="3"/>
+    </row>
+    <row r="176" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L176" s="3"/>
+    </row>
+    <row r="177" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L177" s="3"/>
+    </row>
+    <row r="178" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L178" s="3"/>
+    </row>
+    <row r="179" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L179" s="3"/>
+    </row>
+    <row r="180" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L180" s="3"/>
+    </row>
+    <row r="181" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L181" s="3"/>
+    </row>
+    <row r="182" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L182" s="3"/>
+    </row>
+    <row r="183" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L183" s="3"/>
+    </row>
+    <row r="184" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L184" s="3"/>
+    </row>
+    <row r="185" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L185" s="3"/>
+    </row>
+    <row r="186" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L186" s="3"/>
+    </row>
+    <row r="187" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L187" s="3"/>
+    </row>
+    <row r="188" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L188" s="3"/>
+    </row>
+    <row r="189" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L189" s="3"/>
+    </row>
+    <row r="190" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L190" s="3"/>
+    </row>
+    <row r="191" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L191" s="3"/>
+    </row>
+    <row r="192" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L192" s="3"/>
+    </row>
+    <row r="193" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L193" s="3"/>
+    </row>
+    <row r="194" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L194" s="3"/>
+    </row>
+    <row r="195" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L195" s="3"/>
+    </row>
+    <row r="196" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L196" s="3"/>
+    </row>
+    <row r="197" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L197" s="3"/>
+    </row>
+    <row r="198" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L198" s="3"/>
+    </row>
+    <row r="199" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L199" s="3"/>
+    </row>
+    <row r="200" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L200" s="3"/>
+    </row>
+    <row r="201" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L201" s="3"/>
+    </row>
+    <row r="202" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L202" s="3"/>
+    </row>
+    <row r="203" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L203" s="3"/>
+    </row>
+    <row r="204" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L204" s="3"/>
+    </row>
+    <row r="205" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L205" s="3"/>
+    </row>
+    <row r="206" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L206" s="3"/>
+    </row>
+    <row r="207" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L207" s="3"/>
+    </row>
+    <row r="208" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L208" s="3"/>
+    </row>
+    <row r="209" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L209" s="3"/>
+    </row>
+    <row r="210" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L210" s="3"/>
+    </row>
+    <row r="211" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L211" s="3"/>
+    </row>
+    <row r="212" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L212" s="3"/>
+    </row>
+    <row r="213" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L213" s="3"/>
+    </row>
+    <row r="214" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L214" s="3"/>
+    </row>
+    <row r="215" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L215" s="3"/>
+    </row>
+    <row r="216" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L216" s="3"/>
+    </row>
+    <row r="217" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L217" s="3"/>
+    </row>
+    <row r="218" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L218" s="3"/>
+    </row>
+    <row r="219" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L219" s="3"/>
+    </row>
+    <row r="220" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L220" s="3"/>
+    </row>
+    <row r="221" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L221" s="3"/>
+    </row>
+    <row r="222" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L222" s="3"/>
+    </row>
+    <row r="223" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L223" s="3"/>
+    </row>
+    <row r="224" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L224" s="3"/>
+    </row>
+    <row r="225" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L225" s="3"/>
+    </row>
+    <row r="226" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L226" s="3"/>
+    </row>
+    <row r="227" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L227" s="3"/>
+    </row>
+    <row r="228" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L228" s="3"/>
+    </row>
+    <row r="229" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L229" s="3"/>
+    </row>
+    <row r="230" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L230" s="3"/>
+    </row>
+    <row r="231" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L231" s="3"/>
+    </row>
+    <row r="232" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L232" s="3"/>
+    </row>
+    <row r="233" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L233" s="3"/>
+    </row>
+    <row r="234" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L234" s="3"/>
+    </row>
+    <row r="235" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L235" s="3"/>
+    </row>
+    <row r="236" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L236" s="3"/>
+    </row>
+    <row r="237" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L237" s="3"/>
+    </row>
+    <row r="238" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L238" s="3"/>
+    </row>
+    <row r="239" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L239" s="3"/>
+    </row>
+    <row r="240" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L240" s="3"/>
+    </row>
+    <row r="241" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L241" s="3"/>
+    </row>
+    <row r="242" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L242" s="3"/>
+    </row>
+    <row r="243" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L243" s="3"/>
+    </row>
+    <row r="244" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L244" s="3"/>
+    </row>
+    <row r="245" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L245" s="3"/>
+    </row>
+    <row r="246" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L246" s="3"/>
+    </row>
+    <row r="247" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L247" s="3"/>
+    </row>
+    <row r="248" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L248" s="3"/>
+    </row>
+    <row r="249" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L249" s="3"/>
+    </row>
+    <row r="250" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L250" s="3"/>
+    </row>
+    <row r="251" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L251" s="3"/>
+    </row>
+    <row r="252" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L252" s="3"/>
+    </row>
+    <row r="253" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L253" s="3"/>
+    </row>
+    <row r="254" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L254" s="3"/>
+    </row>
+    <row r="255" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L255" s="3"/>
+    </row>
+    <row r="256" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L256" s="3"/>
+    </row>
+    <row r="257" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L257" s="3"/>
+    </row>
+    <row r="258" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L258" s="3"/>
+    </row>
+    <row r="259" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L259" s="3"/>
+    </row>
+    <row r="260" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L260" s="3"/>
+    </row>
+    <row r="261" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L261" s="3"/>
+    </row>
+    <row r="262" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L262" s="3"/>
+    </row>
+    <row r="263" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L263" s="3"/>
+    </row>
+    <row r="264" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L264" s="3"/>
+    </row>
+    <row r="265" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L265" s="3"/>
+    </row>
+    <row r="266" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L266" s="3"/>
+    </row>
+    <row r="267" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L267" s="3"/>
+    </row>
+    <row r="268" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L268" s="3"/>
+    </row>
+    <row r="269" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L269" s="3"/>
+    </row>
+    <row r="270" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L270" s="3"/>
+    </row>
+    <row r="271" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L271" s="3"/>
+    </row>
+    <row r="272" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L272" s="3"/>
+    </row>
+    <row r="273" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L273" s="3"/>
+    </row>
+    <row r="274" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L274" s="3"/>
+    </row>
+    <row r="275" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L275" s="3"/>
+    </row>
+    <row r="276" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L276" s="3"/>
+    </row>
+    <row r="277" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L277" s="3"/>
+    </row>
+    <row r="278" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L278" s="3"/>
+    </row>
+    <row r="279" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L279" s="3"/>
+    </row>
+    <row r="280" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L280" s="3"/>
+    </row>
+    <row r="281" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L281" s="3"/>
+    </row>
+    <row r="282" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L282" s="3"/>
+    </row>
+    <row r="283" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L283" s="3"/>
+    </row>
+    <row r="284" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L284" s="3"/>
+    </row>
+    <row r="285" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L285" s="3"/>
+    </row>
+    <row r="286" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L286" s="3"/>
+    </row>
+    <row r="287" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L287" s="3"/>
+    </row>
+    <row r="288" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L288" s="3"/>
+    </row>
+    <row r="289" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L289" s="3"/>
+    </row>
+    <row r="290" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L290" s="3"/>
+    </row>
+    <row r="291" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L291" s="3"/>
+    </row>
+    <row r="292" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L292" s="3"/>
+    </row>
+    <row r="293" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L293" s="3"/>
+    </row>
+    <row r="294" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L294" s="3"/>
+    </row>
+    <row r="295" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L295" s="3"/>
+    </row>
+    <row r="296" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L296" s="3"/>
+    </row>
+    <row r="297" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L297" s="3"/>
+    </row>
+    <row r="298" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L298" s="3"/>
+    </row>
+    <row r="299" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L299" s="3"/>
+    </row>
+    <row r="300" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L300" s="3"/>
+    </row>
+    <row r="301" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L301" s="3"/>
+    </row>
+    <row r="302" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L302" s="3"/>
+    </row>
+    <row r="303" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L303" s="3"/>
+    </row>
+    <row r="304" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L304" s="3"/>
+    </row>
+    <row r="305" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L305" s="3"/>
+    </row>
+    <row r="306" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L306" s="3"/>
+    </row>
+    <row r="307" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L307" s="3"/>
+    </row>
+    <row r="308" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L308" s="3"/>
+    </row>
+    <row r="309" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L309" s="3"/>
+    </row>
+    <row r="310" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L310" s="3"/>
+    </row>
+    <row r="311" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L311" s="3"/>
+    </row>
+    <row r="312" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L312" s="3"/>
+    </row>
+    <row r="313" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L313" s="3"/>
+    </row>
+    <row r="314" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L314" s="3"/>
+    </row>
+    <row r="315" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L315" s="3"/>
+    </row>
+    <row r="316" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L316" s="3"/>
+    </row>
+    <row r="317" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L317" s="3"/>
+    </row>
+    <row r="318" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L318" s="3"/>
+    </row>
+    <row r="319" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L319" s="3"/>
+    </row>
+    <row r="320" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L320" s="3"/>
+    </row>
+    <row r="321" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L321" s="3"/>
+    </row>
+    <row r="322" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L322" s="3"/>
+    </row>
+    <row r="323" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L323" s="3"/>
+    </row>
+    <row r="324" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L324" s="3"/>
+    </row>
+    <row r="325" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L325" s="3"/>
+    </row>
+    <row r="326" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L326" s="3"/>
+    </row>
+    <row r="327" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L327" s="3"/>
+    </row>
+    <row r="328" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L328" s="3"/>
+    </row>
+    <row r="329" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L329" s="3"/>
+    </row>
+    <row r="330" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L330" s="3"/>
+    </row>
+    <row r="331" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L331" s="3"/>
+    </row>
+    <row r="332" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L332" s="3"/>
+    </row>
+    <row r="333" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L333" s="3"/>
+    </row>
+    <row r="334" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L334" s="3"/>
+    </row>
+    <row r="335" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L335" s="3"/>
+    </row>
+    <row r="336" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L336" s="3"/>
+    </row>
+    <row r="337" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L337" s="3"/>
+    </row>
+    <row r="338" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L338" s="3"/>
+    </row>
+    <row r="339" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L339" s="3"/>
+    </row>
+    <row r="340" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L340" s="3"/>
+    </row>
+    <row r="341" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L341" s="3"/>
+    </row>
+    <row r="342" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L342" s="3"/>
+    </row>
+    <row r="343" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L343" s="3"/>
+    </row>
+    <row r="344" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L344" s="3"/>
+    </row>
+    <row r="345" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L345" s="3"/>
+    </row>
+    <row r="346" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L346" s="3"/>
+    </row>
+    <row r="347" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L347" s="3"/>
+    </row>
+    <row r="348" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L348" s="3"/>
+    </row>
+    <row r="349" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L349" s="3"/>
+    </row>
+    <row r="350" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L350" s="3"/>
+    </row>
+    <row r="351" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L351" s="3"/>
+    </row>
+    <row r="352" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L352" s="3"/>
+    </row>
+    <row r="353" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L353" s="3"/>
+    </row>
+    <row r="354" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L354" s="3"/>
+    </row>
+    <row r="355" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L355" s="3"/>
+    </row>
+    <row r="356" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L356" s="3"/>
+    </row>
+    <row r="357" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L357" s="3"/>
+    </row>
+    <row r="358" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L358" s="3"/>
+    </row>
+    <row r="359" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L359" s="3"/>
+    </row>
+    <row r="360" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L360" s="3"/>
+    </row>
+    <row r="361" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L361" s="3"/>
+    </row>
+    <row r="362" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L362" s="3"/>
+    </row>
+    <row r="363" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L363" s="3"/>
+    </row>
+    <row r="364" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L364" s="3"/>
+    </row>
+    <row r="365" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L365" s="3"/>
+    </row>
+    <row r="366" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L366" s="3"/>
+    </row>
+    <row r="367" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L367" s="3"/>
+    </row>
+    <row r="368" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L368" s="3"/>
+    </row>
+    <row r="369" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L369" s="3"/>
+    </row>
+    <row r="370" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L370" s="3"/>
+    </row>
+    <row r="371" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L371" s="3"/>
+    </row>
+    <row r="372" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L372" s="3"/>
+    </row>
+    <row r="373" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L373" s="3"/>
+    </row>
+    <row r="374" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L374" s="3"/>
+    </row>
+    <row r="375" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L375" s="3"/>
+    </row>
+    <row r="376" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L376" s="3"/>
+    </row>
+    <row r="377" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L377" s="3"/>
+    </row>
+    <row r="378" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L378" s="3"/>
+    </row>
+    <row r="379" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L379" s="3"/>
+    </row>
+    <row r="380" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L380" s="3"/>
+    </row>
+    <row r="381" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L381" s="3"/>
+    </row>
+    <row r="382" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L382" s="3"/>
+    </row>
+    <row r="383" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L383" s="3"/>
+    </row>
+    <row r="384" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L384" s="3"/>
+    </row>
+    <row r="385" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L385" s="3"/>
+    </row>
+    <row r="386" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L386" s="3"/>
+    </row>
+    <row r="387" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L387" s="3"/>
+    </row>
+    <row r="388" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L388" s="3"/>
+    </row>
+    <row r="389" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L389" s="3"/>
+    </row>
+    <row r="390" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L390" s="3"/>
+    </row>
+    <row r="391" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L391" s="3"/>
+    </row>
+    <row r="392" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L392" s="3"/>
+    </row>
+    <row r="393" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L393" s="3"/>
+    </row>
+    <row r="394" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L394" s="3"/>
+    </row>
+    <row r="395" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L395" s="3"/>
+    </row>
+    <row r="396" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L396" s="3"/>
+    </row>
+    <row r="397" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L397" s="3"/>
+    </row>
+    <row r="398" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L398" s="3"/>
+    </row>
+    <row r="399" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L399" s="3"/>
+    </row>
+    <row r="400" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L400" s="3"/>
+    </row>
+    <row r="401" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L401" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>